--- a/data/Yting_260321_20210326-103027/Intensities.xlsx
+++ b/data/Yting_260321_20210326-103027/Intensities.xlsx
@@ -423,7 +423,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
@@ -493,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7594.37015017564</v>
+        <v>7636.807969144469</v>
       </c>
       <c r="C3">
-        <v>10098.93441091579</v>
+        <v>10098.93223595734</v>
       </c>
       <c r="D3">
         <v>0.0007108154385029839</v>
@@ -522,10 +522,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7648.406018929631</v>
+        <v>7690.590392911737</v>
       </c>
       <c r="C4">
-        <v>10043.1580577808</v>
+        <v>10043.15589581152</v>
       </c>
       <c r="D4">
         <v>0.00074016810966729</v>
@@ -551,10 +551,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7446.598092952063</v>
+        <v>7488.420017175849</v>
       </c>
       <c r="C5">
-        <v>9906.221192900695</v>
+        <v>9906.219049507143</v>
       </c>
       <c r="D5">
         <v>0.0007510606012760898</v>
@@ -580,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7619.6197741914</v>
+        <v>7660.721664412274</v>
       </c>
       <c r="C6">
-        <v>10057.61854152643</v>
+        <v>10057.61643503496</v>
       </c>
       <c r="D6">
         <v>0.0006821109526625053</v>
@@ -609,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7454.310243353667</v>
+        <v>7495.3977644557</v>
       </c>
       <c r="C7">
-        <v>9647.269306019147</v>
+        <v>9647.267200264103</v>
       </c>
       <c r="D7">
         <v>0.0006628836014496998</v>
@@ -638,10 +638,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7518.136007197392</v>
+        <v>7559.13773750099</v>
       </c>
       <c r="C8">
-        <v>10009.31811217335</v>
+        <v>10009.31601081513</v>
       </c>
       <c r="D8">
         <v>0.0007041066774120999</v>
@@ -667,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7643.070818111481</v>
+        <v>7683.632656962688</v>
       </c>
       <c r="C9">
-        <v>9865.393673828888</v>
+        <v>9865.391595015313</v>
       </c>
       <c r="D9">
         <v>0.0007301730566879344</v>
@@ -696,10 +696,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7457.605115714183</v>
+        <v>7500.363185151077</v>
       </c>
       <c r="C10">
-        <v>10180.11274628009</v>
+        <v>10180.11055490865</v>
       </c>
       <c r="D10">
         <v>0.0006904578049152318</v>
@@ -725,10 +725,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7551.342094274357</v>
+        <v>7593.981296161147</v>
       </c>
       <c r="C11">
-        <v>10095.4474613446</v>
+        <v>10095.44527606518</v>
       </c>
       <c r="D11">
         <v>0.000714630138114085</v>
@@ -754,10 +754,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7511.502178798341</v>
+        <v>7553.650408230419</v>
       </c>
       <c r="C12">
-        <v>9846.950335789958</v>
+        <v>9846.948175673106</v>
       </c>
       <c r="D12">
         <v>0.0006801902696815014</v>
@@ -783,10 +783,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7703.38029692691</v>
+        <v>7744.874608380954</v>
       </c>
       <c r="C13">
-        <v>9794.161329492055</v>
+        <v>9794.159202888812</v>
       </c>
       <c r="D13">
         <v>0.0007585411588134818</v>
@@ -812,10 +812,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7706.387689004557</v>
+        <v>7747.862598002783</v>
       </c>
       <c r="C14">
-        <v>10092.46913969308</v>
+        <v>10092.46701408423</v>
       </c>
       <c r="D14">
         <v>0.0007048534595775005</v>
@@ -841,10 +841,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7671.988344847467</v>
+        <v>7714.490092772161</v>
       </c>
       <c r="C15">
-        <v>9978.410846268698</v>
+        <v>9978.408668033857</v>
       </c>
       <c r="D15">
         <v>0.0007088137477806523</v>
@@ -870,10 +870,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7558.585399575275</v>
+        <v>7601.448835777766</v>
       </c>
       <c r="C16">
-        <v>10077.51502966115</v>
+        <v>10077.51283288961</v>
       </c>
       <c r="D16">
         <v>0.0007642530829346672</v>
@@ -899,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7580.867532866464</v>
+        <v>7623.36241490529</v>
       </c>
       <c r="C17">
-        <v>10260.78845169739</v>
+        <v>10260.78627381442</v>
       </c>
       <c r="D17">
         <v>0.0007504474381633194</v>
@@ -928,10 +928,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7379.001620142266</v>
+        <v>7421.192094250462</v>
       </c>
       <c r="C18">
-        <v>9840.980335657716</v>
+        <v>9840.978173375805</v>
       </c>
       <c r="D18">
         <v>0.0006937130942581452</v>
@@ -957,10 +957,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7637.24402372455</v>
+        <v>7678.152077063914</v>
       </c>
       <c r="C19">
-        <v>10089.99093503497</v>
+        <v>10089.98883847774</v>
       </c>
       <c r="D19">
         <v>0.0007636791675440138</v>
@@ -986,10 +986,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7466.429734526989</v>
+        <v>7507.844010066067</v>
       </c>
       <c r="C20">
-        <v>9819.074988270813</v>
+        <v>9819.072865769449</v>
       </c>
       <c r="D20">
         <v>0.0007626605739024661</v>
@@ -1015,10 +1015,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7642.343258868537</v>
+        <v>7684.614051501116</v>
       </c>
       <c r="C21">
-        <v>10209.99108271131</v>
+        <v>10209.98891631304</v>
       </c>
       <c r="D21">
         <v>0.0007765657976411111</v>
@@ -1044,10 +1044,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7168.311147492039</v>
+        <v>7209.073719302787</v>
       </c>
       <c r="C22">
-        <v>9675.176926420632</v>
+        <v>9675.174837319395</v>
       </c>
       <c r="D22">
         <v>0.0006978825272295914</v>
@@ -1073,10 +1073,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7811.968975467936</v>
+        <v>7854.419487898519</v>
       </c>
       <c r="C23">
-        <v>10351.91422168518</v>
+        <v>10351.91204607618</v>
       </c>
       <c r="D23">
         <v>0.0007462151047877905</v>
@@ -1102,10 +1102,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7690.448585221308</v>
+        <v>7733.408906899451</v>
       </c>
       <c r="C24">
-        <v>10034.179792786</v>
+        <v>10034.17759104904</v>
       </c>
       <c r="D24">
         <v>0.0007720119368117787</v>
@@ -1131,10 +1131,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7494.085078465049</v>
+        <v>7536.221766016101</v>
       </c>
       <c r="C25">
-        <v>9825.038809937423</v>
+        <v>9825.036650412099</v>
       </c>
       <c r="D25">
         <v>0.0007398758643012988</v>
@@ -1160,10 +1160,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7714.357246796985</v>
+        <v>7755.83009752212</v>
       </c>
       <c r="C26">
-        <v>9783.703290503028</v>
+        <v>9783.70116499966</v>
       </c>
       <c r="D26">
         <v>0.0006904469537543719</v>
@@ -1189,10 +1189,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7547.515596878057</v>
+        <v>7589.505154826807</v>
       </c>
       <c r="C27">
-        <v>10253.82598747255</v>
+        <v>10253.82383548769</v>
       </c>
       <c r="D27">
         <v>0.0006717876339223771</v>
@@ -1218,10 +1218,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7650.157002596239</v>
+        <v>7692.580233070901</v>
       </c>
       <c r="C28">
-        <v>10135.78460485466</v>
+        <v>10135.78243064388</v>
       </c>
       <c r="D28">
         <v>0.0007280454603781491</v>
@@ -1247,10 +1247,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7619.364020672964</v>
+        <v>7661.707023714016</v>
       </c>
       <c r="C29">
-        <v>10084.99004493916</v>
+        <v>10084.98787484007</v>
       </c>
       <c r="D29">
         <v>0.0007504531046835973</v>
@@ -1276,10 +1276,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7639.818427217114</v>
+        <v>7682.123956633016</v>
       </c>
       <c r="C30">
-        <v>9931.602627657763</v>
+        <v>9931.600459479214</v>
       </c>
       <c r="D30">
         <v>0.000702823176176157</v>
@@ -1305,10 +1305,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7442.814897623251</v>
+        <v>7484.438054000228</v>
       </c>
       <c r="C31">
-        <v>9762.79893370826</v>
+        <v>9762.796800501654</v>
       </c>
       <c r="D31">
         <v>0.0006386248787165343</v>
@@ -1334,10 +1334,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7541.446557398855</v>
+        <v>7583.03502066498</v>
       </c>
       <c r="C32">
-        <v>10014.78619366871</v>
+        <v>10014.78406224014</v>
       </c>
       <c r="D32">
         <v>0.0006923243044729518</v>
@@ -1363,10 +1363,10 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>7594.37015017564</v>
+        <v>7636.807969144469</v>
       </c>
       <c r="C34">
-        <v>10034.179792786</v>
+        <v>10034.17759104904</v>
       </c>
       <c r="D34">
         <v>0.000714630138114085</v>
@@ -1392,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.4987686943290966</v>
+        <v>0.4962053355639193</v>
       </c>
       <c r="C35">
-        <v>0.6261090226860097</v>
+        <v>0.6261091005132167</v>
       </c>
       <c r="D35">
         <v>1.721822825628736</v>
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30181.22039664819</v>
+        <v>30226.56616323586</v>
       </c>
       <c r="C3">
-        <v>4355.837657058317</v>
+        <v>4355.835333066163</v>
       </c>
       <c r="D3">
         <v>0.5150291846534304</v>
@@ -1529,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30261.01952852327</v>
+        <v>30306.3098827807</v>
       </c>
       <c r="C4">
-        <v>4474.830573793084</v>
+        <v>4474.828252640837</v>
       </c>
       <c r="D4">
         <v>0.5156118057092255</v>
@@ -1558,10 +1558,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30378.97770984982</v>
+        <v>30424.43004031261</v>
       </c>
       <c r="C5">
-        <v>4351.852227047739</v>
+        <v>4351.849897594135</v>
       </c>
       <c r="D5">
         <v>0.5130377008724837</v>
@@ -1587,10 +1587,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30692.95891543728</v>
+        <v>30738.42139463598</v>
       </c>
       <c r="C6">
-        <v>4404.58635168183</v>
+        <v>4404.584021708099</v>
       </c>
       <c r="D6">
         <v>0.5187440340633985</v>
@@ -1616,10 +1616,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30602.58383195455</v>
+        <v>30648.20867771203</v>
       </c>
       <c r="C7">
-        <v>4412.554453573492</v>
+        <v>4412.552115278398</v>
       </c>
       <c r="D7">
         <v>0.5188534136405338</v>
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30607.20637332708</v>
+        <v>30652.69607673932</v>
       </c>
       <c r="C8">
-        <v>4451.89789954524</v>
+        <v>4451.895568176255</v>
       </c>
       <c r="D8">
         <v>0.5173450845007209</v>
@@ -1674,10 +1674,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30269.8151450515</v>
+        <v>30315.27894272241</v>
       </c>
       <c r="C9">
-        <v>4433.991994438798</v>
+        <v>4433.989664397494</v>
       </c>
       <c r="D9">
         <v>0.5171449169023024</v>
@@ -1703,10 +1703,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29205.79820482321</v>
+        <v>29250.24306781452</v>
       </c>
       <c r="C10">
-        <v>4110.042402614678</v>
+        <v>4110.040124794263</v>
       </c>
       <c r="D10">
         <v>0.4933706955878678</v>
@@ -1732,10 +1732,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30350.53146863151</v>
+        <v>30395.52759224655</v>
       </c>
       <c r="C11">
-        <v>4377.263623570669</v>
+        <v>4377.261317497883</v>
       </c>
       <c r="D11">
         <v>0.5109523286840059</v>
@@ -1761,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29648.03000401166</v>
+        <v>29693.29004615017</v>
       </c>
       <c r="C12">
-        <v>4399.698890914898</v>
+        <v>4399.696571316163</v>
       </c>
       <c r="D12">
         <v>0.5114478909166628</v>
@@ -1790,10 +1790,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29063.32611995315</v>
+        <v>29106.72312382787</v>
       </c>
       <c r="C13">
-        <v>4024.965801238145</v>
+        <v>4024.963577121008</v>
       </c>
       <c r="D13">
         <v>0.4848971446941143</v>
@@ -1819,10 +1819,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30184.66550914575</v>
+        <v>30228.08287046613</v>
       </c>
       <c r="C14">
-        <v>4401.23632891993</v>
+        <v>4401.234103759465</v>
       </c>
       <c r="D14">
         <v>0.5024091665844775</v>
@@ -1848,10 +1848,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29760.50087105771</v>
+        <v>29805.92450155532</v>
       </c>
       <c r="C15">
-        <v>4312.562430559066</v>
+        <v>4312.560102576349</v>
       </c>
       <c r="D15">
         <v>0.5104638931026318</v>
@@ -1877,10 +1877,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29529.00239585138</v>
+        <v>29572.70162367456</v>
       </c>
       <c r="C16">
-        <v>4275.838294748462</v>
+        <v>4275.836055142204</v>
       </c>
       <c r="D16">
         <v>0.4932302665217573</v>
@@ -1906,10 +1906,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29775.4778361919</v>
+        <v>29819.89169134068</v>
       </c>
       <c r="C17">
-        <v>4298.181887972527</v>
+        <v>4298.179611741278</v>
       </c>
       <c r="D17">
         <v>0.501265892400278</v>
@@ -1935,10 +1935,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30212.03824185719</v>
+        <v>30256.48020298862</v>
       </c>
       <c r="C18">
-        <v>4370.319352306691</v>
+        <v>4370.317074634998</v>
       </c>
       <c r="D18">
         <v>0.5086832398486787</v>
@@ -1964,10 +1964,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28791.04345887261</v>
+        <v>28835.59504878577</v>
       </c>
       <c r="C19">
-        <v>4236.523516727014</v>
+        <v>4236.521233436793</v>
       </c>
       <c r="D19">
         <v>0.4943856739763348</v>
@@ -1993,10 +1993,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28121.87876178934</v>
+        <v>28163.83132059389</v>
       </c>
       <c r="C20">
-        <v>4138.102727339664</v>
+        <v>4138.100577251026</v>
       </c>
       <c r="D20">
         <v>0.4756883855643009</v>
@@ -2022,10 +2022,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29463.86781508588</v>
+        <v>29506.92089307484</v>
       </c>
       <c r="C21">
-        <v>4248.470720420499</v>
+        <v>4248.468513929728</v>
       </c>
       <c r="D21">
         <v>0.4924309143135167</v>
@@ -2051,10 +2051,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29972.61117262432</v>
+        <v>30014.78495350867</v>
       </c>
       <c r="C22">
-        <v>4191.698536379998</v>
+        <v>4191.696374953623</v>
       </c>
       <c r="D22">
         <v>0.4921920282204604</v>
@@ -2080,10 +2080,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30425.22474373407</v>
+        <v>30470.28660927818</v>
       </c>
       <c r="C23">
-        <v>4347.379712366226</v>
+        <v>4347.377402924137</v>
       </c>
       <c r="D23">
         <v>0.511981908752428</v>
@@ -2109,10 +2109,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30424.5776594137</v>
+        <v>30469.78591687442</v>
       </c>
       <c r="C24">
-        <v>4424.042256250651</v>
+        <v>4424.039939305905</v>
       </c>
       <c r="D24">
         <v>0.5145570299118043</v>
@@ -2138,10 +2138,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30229.19634441594</v>
+        <v>30274.41535005824</v>
       </c>
       <c r="C25">
-        <v>4384.241675360773</v>
+        <v>4384.239357865177</v>
       </c>
       <c r="D25">
         <v>0.5099981283028063</v>
@@ -2167,10 +2167,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29915.4621138166</v>
+        <v>29960.43081894348</v>
       </c>
       <c r="C26">
-        <v>4340.961991094642</v>
+        <v>4340.959686427069</v>
       </c>
       <c r="D26">
         <v>0.5062474306793989</v>
@@ -2196,10 +2196,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>30028.93704646137</v>
+        <v>30073.56886599757</v>
       </c>
       <c r="C27">
-        <v>4297.646125162207</v>
+        <v>4297.64383776018</v>
       </c>
       <c r="D27">
         <v>0.5057682092574224</v>
@@ -2225,10 +2225,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>29636.97887147388</v>
+        <v>29681.3401766883</v>
       </c>
       <c r="C28">
-        <v>4273.788024820875</v>
+        <v>4273.785751282836</v>
       </c>
       <c r="D28">
         <v>0.5022268072525201</v>
@@ -2254,10 +2254,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>28530.94525735981</v>
+        <v>28574.46278315596</v>
       </c>
       <c r="C29">
-        <v>4117.095021030861</v>
+        <v>4117.092790736919</v>
       </c>
       <c r="D29">
         <v>0.4863972280306714</v>
@@ -2283,10 +2283,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>29099.42105040301</v>
+        <v>29141.12544028988</v>
       </c>
       <c r="C30">
-        <v>4214.68946805483</v>
+        <v>4214.687330684967</v>
       </c>
       <c r="D30">
         <v>0.4847423647365758</v>
@@ -2312,10 +2312,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>29122.16934519411</v>
+        <v>29165.52861047289</v>
       </c>
       <c r="C31">
-        <v>4241.014578074129</v>
+        <v>4241.012355891114</v>
       </c>
       <c r="D31">
         <v>0.4925370059556129</v>
@@ -2341,10 +2341,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>28392.12336753856</v>
+        <v>28434.4354212692</v>
       </c>
       <c r="C32">
-        <v>4164.449528997364</v>
+        <v>4164.447360484439</v>
       </c>
       <c r="D32">
         <v>0.4803898664756265</v>
@@ -2370,10 +2370,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>29564.85041807275</v>
+        <v>29606.61069338029</v>
       </c>
       <c r="C33">
-        <v>4178.30680593039</v>
+        <v>4178.304665696373</v>
       </c>
       <c r="D33">
         <v>0.4871022654259859</v>
@@ -2399,10 +2399,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>30279.76359058578</v>
+        <v>30324.75486539022</v>
       </c>
       <c r="C34">
-        <v>4309.550617275521</v>
+        <v>4309.54831145124</v>
       </c>
       <c r="D34">
         <v>0.5113709684434271</v>
@@ -2428,10 +2428,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>30347.49542674555</v>
+        <v>30392.53754119701</v>
       </c>
       <c r="C35">
-        <v>4351.380797083945</v>
+        <v>4351.378488654108</v>
       </c>
       <c r="D35">
         <v>0.5091463906404736</v>
@@ -2457,10 +2457,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>30391.42762184747</v>
+        <v>30436.39794638376</v>
       </c>
       <c r="C36">
-        <v>4350.889140023362</v>
+        <v>4350.886835272792</v>
       </c>
       <c r="D36">
         <v>0.5075998095243275</v>
@@ -2486,10 +2486,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>29213.94990033181</v>
+        <v>29258.216395411</v>
       </c>
       <c r="C37">
-        <v>4230.510010020453</v>
+        <v>4230.507741341477</v>
       </c>
       <c r="D37">
         <v>0.4988431729354989</v>
@@ -2515,10 +2515,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>28994.91454264185</v>
+        <v>29038.44269237954</v>
       </c>
       <c r="C38">
-        <v>4196.717582368661</v>
+        <v>4196.715351530237</v>
       </c>
       <c r="D38">
         <v>0.4900052502522496</v>
@@ -2544,10 +2544,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>29150.64733167864</v>
+        <v>29193.44526046528</v>
       </c>
       <c r="C39">
-        <v>4126.538043257985</v>
+        <v>4126.535849843733</v>
       </c>
       <c r="D39">
         <v>0.4856013682814718</v>
@@ -2573,10 +2573,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>28657.04063450101</v>
+        <v>28700.06148776298</v>
       </c>
       <c r="C40">
-        <v>4046.967083833926</v>
+        <v>4046.964878994688</v>
       </c>
       <c r="D40">
         <v>0.4708439689894787</v>
@@ -2602,10 +2602,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>30142.90480028405</v>
+        <v>30187.2055962322</v>
       </c>
       <c r="C41">
-        <v>4337.975843695175</v>
+        <v>4337.973573258265</v>
       </c>
       <c r="D41">
         <v>0.505663468345028</v>
@@ -2631,10 +2631,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>30291.64735750791</v>
+        <v>30336.71682146399</v>
       </c>
       <c r="C42">
-        <v>4383.25092971563</v>
+        <v>4383.248619884118</v>
       </c>
       <c r="D42">
         <v>0.5087468292923044</v>
@@ -2660,10 +2660,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>30195.96053830977</v>
+        <v>30241.02429746456</v>
       </c>
       <c r="C43">
-        <v>4357.361362617038</v>
+        <v>4357.359053077899</v>
       </c>
       <c r="D43">
         <v>0.5095016256700925</v>
@@ -2689,10 +2689,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>29964.84163095952</v>
+        <v>30009.77161984828</v>
       </c>
       <c r="C44">
-        <v>4300.128825162585</v>
+        <v>4300.126522479236</v>
       </c>
       <c r="D44">
         <v>0.506931367732145</v>
@@ -2718,10 +2718,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>29977.43165765308</v>
+        <v>30021.74046508802</v>
       </c>
       <c r="C45">
-        <v>4266.305745849303</v>
+        <v>4266.3034750018</v>
       </c>
       <c r="D45">
         <v>0.5016243802178076</v>
@@ -2747,10 +2747,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>30061.57018800659</v>
+        <v>30105.96792486629</v>
       </c>
       <c r="C46">
-        <v>4303.640452122294</v>
+        <v>4303.638176717116</v>
       </c>
       <c r="D46">
         <v>0.5020869760476859</v>
@@ -2776,10 +2776,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>29173.82449078679</v>
+        <v>29217.84998828892</v>
       </c>
       <c r="C47">
-        <v>4287.775412644226</v>
+        <v>4287.773156316492</v>
       </c>
       <c r="D47">
         <v>0.4986086676622715</v>
@@ -2805,10 +2805,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>29103.31673149463</v>
+        <v>29144.61953263654</v>
       </c>
       <c r="C48">
-        <v>4175.883370507184</v>
+        <v>4175.881253718936</v>
       </c>
       <c r="D48">
         <v>0.4796974792186016</v>
@@ -2834,10 +2834,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>29941.57765059332</v>
+        <v>29985.85602228237</v>
       </c>
       <c r="C49">
-        <v>4321.071373951533</v>
+        <v>4321.069104663876</v>
       </c>
       <c r="D49">
         <v>0.5028372443841058</v>
@@ -2863,10 +2863,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>29777.07251307823</v>
+        <v>29821.38756250114</v>
       </c>
       <c r="C50">
-        <v>4391.28945626114</v>
+        <v>4391.287185093732</v>
       </c>
       <c r="D50">
         <v>0.5015928923559393</v>
@@ -2892,10 +2892,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>29208.11622038314</v>
+        <v>29252.23885150806</v>
       </c>
       <c r="C51">
-        <v>4192.194972881436</v>
+        <v>4192.192711575557</v>
       </c>
       <c r="D51">
         <v>0.494509530388289</v>
@@ -2921,10 +2921,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>28179.92364877043</v>
+        <v>28222.13502536391</v>
       </c>
       <c r="C52">
-        <v>4124.132427078255</v>
+        <v>4124.130263725082</v>
       </c>
       <c r="D52">
         <v>0.4803339324676424</v>
@@ -2950,10 +2950,10 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>29968.72640179192</v>
+        <v>30012.27828667848</v>
       </c>
       <c r="C54">
-        <v>4306.595534698908</v>
+        <v>4306.593244084178</v>
       </c>
       <c r="D54">
         <v>0.5026232054842916</v>
@@ -2979,10 +2979,10 @@
         <v>10</v>
       </c>
       <c r="B55">
-        <v>0.5347331863819477</v>
+        <v>0.5346642157288586</v>
       </c>
       <c r="C55">
-        <v>0.6545021050625354</v>
+        <v>0.6545021421379905</v>
       </c>
       <c r="D55">
         <v>0.644701665642865</v>
@@ -3087,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8364.761865293865</v>
+        <v>8408.157793671713</v>
       </c>
       <c r="C3">
-        <v>11177.76156202223</v>
+        <v>11177.75933796021</v>
       </c>
       <c r="D3">
         <v>0.0007998175343548359</v>
@@ -3116,10 +3116,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8327.68559966988</v>
+        <v>8371.305453485204</v>
       </c>
       <c r="C4">
-        <v>11110.52616354354</v>
+        <v>11110.52392800523</v>
       </c>
       <c r="D4">
         <v>0.0007154225035637804</v>
@@ -3145,10 +3145,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8305.462270085618</v>
+        <v>8348.897959235357</v>
       </c>
       <c r="C5">
-        <v>10991.00270493828</v>
+        <v>10991.00047883851</v>
       </c>
       <c r="D5">
         <v>0.0007482422911358198</v>
@@ -3174,10 +3174,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8268.652759337965</v>
+        <v>8312.047917619702</v>
       </c>
       <c r="C6">
-        <v>10738.00773329769</v>
+        <v>10738.00550927514</v>
       </c>
       <c r="D6">
         <v>0.0007419516362325083</v>
@@ -3203,10 +3203,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8128.333840923475</v>
+        <v>8171.619473312768</v>
       </c>
       <c r="C7">
-        <v>10801.2658163961</v>
+        <v>10801.2635979868</v>
       </c>
       <c r="D7">
         <v>0.0007240791302898879</v>
@@ -3232,10 +3232,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8116.385831326286</v>
+        <v>8159.66810334663</v>
       </c>
       <c r="C8">
-        <v>10604.0492164708</v>
+        <v>10604.04699823372</v>
       </c>
       <c r="D8">
         <v>0.0007157879198086903</v>
@@ -3261,10 +3261,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8188.419848103802</v>
+        <v>8231.379339978064</v>
       </c>
       <c r="C9">
-        <v>10804.25588500233</v>
+        <v>10804.25368330789</v>
       </c>
       <c r="D9">
         <v>0.0007132714129976698</v>
@@ -3290,10 +3290,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7775.029343403241</v>
+        <v>7817.567890878642</v>
       </c>
       <c r="C10">
-        <v>10488.03953928541</v>
+        <v>10488.03735916457</v>
       </c>
       <c r="D10">
         <v>0.0006465387235472403</v>
@@ -3319,10 +3319,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8155.725725129367</v>
+        <v>8198.020568552251</v>
       </c>
       <c r="C11">
-        <v>10857.5561167379</v>
+        <v>10857.55394910702</v>
       </c>
       <c r="D11">
         <v>0.0007747476794871991</v>
@@ -3348,10 +3348,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7867.545167638863</v>
+        <v>7909.201708066484</v>
       </c>
       <c r="C12">
-        <v>10411.85096461394</v>
+        <v>10411.84882969638</v>
       </c>
       <c r="D12">
         <v>0.0007189063644563955</v>
@@ -3377,10 +3377,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8099.608678941311</v>
+        <v>8141.256912812774</v>
       </c>
       <c r="C13">
-        <v>10481.06373438736</v>
+        <v>10481.06159989552</v>
       </c>
       <c r="D13">
         <v>0.0007290797730509102</v>
@@ -3406,10 +3406,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8108.176239541875</v>
+        <v>8149.723318782222</v>
       </c>
       <c r="C14">
-        <v>10721.60896857397</v>
+        <v>10721.60683926635</v>
       </c>
       <c r="D14">
         <v>0.0007860665990111482</v>
@@ -3435,10 +3435,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8449.850208794223</v>
+        <v>8492.818128217959</v>
       </c>
       <c r="C15">
-        <v>11064.21264569975</v>
+        <v>11064.2104435734</v>
       </c>
       <c r="D15">
         <v>0.0007721938668876708</v>
@@ -3464,10 +3464,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8105.426261839893</v>
+        <v>8149.206383110364</v>
       </c>
       <c r="C16">
-        <v>10835.62308921895</v>
+        <v>10835.62084546687</v>
       </c>
       <c r="D16">
         <v>0.0007614019576249718</v>
@@ -3493,10 +3493,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7938.239189035592</v>
+        <v>7980.407194859056</v>
       </c>
       <c r="C17">
-        <v>10325.68260497176</v>
+        <v>10325.68044384136</v>
       </c>
       <c r="D17">
         <v>0.0007233563759907681</v>
@@ -3522,10 +3522,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8263.449945980028</v>
+        <v>8306.078681262859</v>
       </c>
       <c r="C18">
-        <v>10980.55835169772</v>
+        <v>10980.55616695471</v>
       </c>
       <c r="D18">
         <v>0.0007757937498879851</v>
@@ -3551,10 +3551,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7775.808642145236</v>
+        <v>7818.561991734544</v>
       </c>
       <c r="C19">
-        <v>10319.70609809718</v>
+        <v>10319.70390696763</v>
       </c>
       <c r="D19">
         <v>0.0006739992126448128</v>
@@ -3580,10 +3580,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7491.398047867754</v>
+        <v>7531.26032859536</v>
       </c>
       <c r="C20">
-        <v>10024.94051475635</v>
+        <v>10024.93847179546</v>
       </c>
       <c r="D20">
         <v>0.0006879842251247379</v>
@@ -3609,10 +3609,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7844.935997754966</v>
+        <v>7885.310063900581</v>
       </c>
       <c r="C21">
-        <v>10412.36979969932</v>
+        <v>10412.36773050918</v>
       </c>
       <c r="D21">
         <v>0.0006734411709002871</v>
@@ -3638,10 +3638,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8047.145344275256</v>
+        <v>8088.4743572643</v>
       </c>
       <c r="C22">
-        <v>10976.60499343247</v>
+        <v>10976.60287530085</v>
       </c>
       <c r="D22">
         <v>0.0007582590674331498</v>
@@ -3667,10 +3667,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8384.833147856103</v>
+        <v>8428.078268393947</v>
       </c>
       <c r="C23">
-        <v>11004.94606759805</v>
+        <v>11004.943851265</v>
       </c>
       <c r="D23">
         <v>0.0008054099899293955</v>
@@ -3696,10 +3696,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8227.402969290102</v>
+        <v>8271.210264055606</v>
       </c>
       <c r="C24">
-        <v>11041.3020946732</v>
+        <v>11041.29984952846</v>
       </c>
       <c r="D24">
         <v>0.0007387607886875123</v>
@@ -3725,10 +3725,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8058.860344412812</v>
+        <v>8102.39886416537</v>
       </c>
       <c r="C25">
-        <v>10819.19445470263</v>
+        <v>10819.19222333274</v>
       </c>
       <c r="D25">
         <v>0.0007258338182020832</v>
@@ -3754,10 +3754,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7857.00631308794</v>
+        <v>7900.224973966316</v>
       </c>
       <c r="C26">
-        <v>10587.62873703933</v>
+        <v>10587.62652206236</v>
       </c>
       <c r="D26">
         <v>0.0007218470776885037</v>
@@ -3783,10 +3783,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7913.459059858146</v>
+        <v>7956.003410704357</v>
       </c>
       <c r="C27">
-        <v>10379.46407299548</v>
+        <v>10379.46189257722</v>
       </c>
       <c r="D27">
         <v>0.0007051720654561869</v>
@@ -3812,10 +3812,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7953.580579803022</v>
+        <v>7995.843538686666</v>
       </c>
       <c r="C28">
-        <v>10332.1549222286</v>
+        <v>10332.15275623181</v>
       </c>
       <c r="D28">
         <v>0.0006544319228928724</v>
@@ -3841,10 +3841,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7267.600247638914</v>
+        <v>7308.167876823777</v>
       </c>
       <c r="C29">
-        <v>9782.909289975038</v>
+        <v>9782.907210864703</v>
       </c>
       <c r="D29">
         <v>0.0006861938538659766</v>
@@ -3870,10 +3870,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8148.998007750922</v>
+        <v>8188.088301598176</v>
       </c>
       <c r="C30">
-        <v>10472.13565697932</v>
+        <v>10472.13365358313</v>
       </c>
       <c r="D30">
         <v>0.0007240592438929744</v>
@@ -3899,10 +3899,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8239.808516229072</v>
+        <v>8282.671744333884</v>
       </c>
       <c r="C31">
-        <v>10790.80772003399</v>
+        <v>10790.80552327311</v>
       </c>
       <c r="D31">
         <v>0.0007774316020224538</v>
@@ -3928,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8496.117344366898</v>
+        <v>8539.623833607026</v>
       </c>
       <c r="C32">
-        <v>11252.4582153793</v>
+        <v>11252.45598565099</v>
       </c>
       <c r="D32">
         <v>0.0007849937635052261</v>
@@ -3957,10 +3957,10 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>8122.359836124881</v>
+        <v>8165.643788329699</v>
       </c>
       <c r="C34">
-        <v>10796.03676821504</v>
+        <v>10796.03456062996</v>
       </c>
       <c r="D34">
         <v>0.0007249564742459855</v>
@@ -3986,10 +3986,10 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.9360174498847031</v>
+        <v>0.9329808065481168</v>
       </c>
       <c r="C35">
-        <v>0.9943427456923223</v>
+        <v>0.9943428476220536</v>
       </c>
       <c r="D35">
         <v>2.120209222267924</v>
@@ -4025,7 +4025,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -4094,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43270.98144148523</v>
+        <v>43297.900846456</v>
       </c>
       <c r="C3">
-        <v>1571.08055905671</v>
+        <v>1571.079179424373</v>
       </c>
       <c r="D3">
         <v>0.002148186879250918</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>43801.8033245887</v>
+        <v>43828.46728434237</v>
       </c>
       <c r="C4">
-        <v>1566.576591122558</v>
+        <v>1566.57522458191</v>
       </c>
       <c r="D4">
         <v>0.002146312796868148</v>
@@ -4152,10 +4152,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42843.47574808564</v>
+        <v>42870.06916615836</v>
       </c>
       <c r="C5">
-        <v>1552.686276647743</v>
+        <v>1552.68491372239</v>
       </c>
       <c r="D5">
         <v>0.002296898068897667</v>
@@ -4181,10 +4181,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>43355.13104298992</v>
+        <v>43381.18217897003</v>
       </c>
       <c r="C6">
-        <v>1486.953163567588</v>
+        <v>1486.951828434451</v>
       </c>
       <c r="D6">
         <v>0.002112902129724844</v>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42816.49804221063</v>
+        <v>42843.14240674029</v>
       </c>
       <c r="C7">
-        <v>1566.129743453157</v>
+        <v>1566.128377916773</v>
       </c>
       <c r="D7">
         <v>0.002103050282894534</v>
@@ -4239,10 +4239,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40275.72746818267</v>
+        <v>40301.225063021</v>
       </c>
       <c r="C8">
-        <v>1372.117439835824</v>
+        <v>1372.116133071934</v>
       </c>
       <c r="D8">
         <v>0.001976669302222844</v>
@@ -4268,10 +4268,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>42456.46464383267</v>
+        <v>42482.14006326471</v>
       </c>
       <c r="C9">
-        <v>1523.846109036375</v>
+        <v>1523.844793158889</v>
       </c>
       <c r="D9">
         <v>0.002023157422827365</v>
@@ -4297,10 +4297,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43705.67224010057</v>
+        <v>43732.22783865384</v>
       </c>
       <c r="C10">
-        <v>1524.763907644301</v>
+        <v>1524.762546657216</v>
       </c>
       <c r="D10">
         <v>0.002134544340517107</v>
@@ -4326,10 +4326,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>43804.22646932086</v>
+        <v>43830.95995906863</v>
       </c>
       <c r="C11">
-        <v>1522.266706446728</v>
+        <v>1522.265336342634</v>
       </c>
       <c r="D11">
         <v>0.002178626434400797</v>
@@ -4355,10 +4355,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>42400.63827782578</v>
+        <v>42426.78813289008</v>
       </c>
       <c r="C12">
-        <v>1516.871553264718</v>
+        <v>1516.870213072181</v>
       </c>
       <c r="D12">
         <v>0.002095593506912184</v>
@@ -4384,10 +4384,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40993.27693279308</v>
+        <v>41018.70415488599</v>
       </c>
       <c r="C13">
-        <v>1427.342540874873</v>
+        <v>1427.341237717619</v>
       </c>
       <c r="D13">
         <v>0.001999977885886541</v>
@@ -4413,10 +4413,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41095.28851305341</v>
+        <v>41120.42166808044</v>
       </c>
       <c r="C14">
-        <v>1429.83097585229</v>
+        <v>1429.829687766114</v>
       </c>
       <c r="D14">
         <v>0.002005815432819564</v>
@@ -4442,10 +4442,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>43434.47188397274</v>
+        <v>43460.4676800418</v>
       </c>
       <c r="C15">
-        <v>1540.219862352506</v>
+        <v>1540.218530055565</v>
       </c>
       <c r="D15">
         <v>0.002080060383632987</v>
@@ -4471,10 +4471,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43540.47740621119</v>
+        <v>43567.17266547685</v>
       </c>
       <c r="C16">
-        <v>1485.439281939431</v>
+        <v>1485.437913794667</v>
       </c>
       <c r="D16">
         <v>0.002337340038403434</v>
@@ -4500,10 +4500,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43695.56921332608</v>
+        <v>43722.25366463936</v>
       </c>
       <c r="C17">
-        <v>1577.534419680417</v>
+        <v>1577.533052089567</v>
       </c>
       <c r="D17">
         <v>0.002144781599502703</v>
@@ -4529,10 +4529,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>43421.72069147965</v>
+        <v>43448.49349510931</v>
       </c>
       <c r="C18">
-        <v>1546.18270525201</v>
+        <v>1546.181333133061</v>
       </c>
       <c r="D18">
         <v>0.002125706954362446</v>
@@ -4558,10 +4558,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>43605.56089914095</v>
+        <v>43631.99959540888</v>
       </c>
       <c r="C19">
-        <v>1528.255702403143</v>
+        <v>1528.254347407356</v>
       </c>
       <c r="D19">
         <v>0.002144555317490446</v>
@@ -4587,10 +4587,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43290.31252744042</v>
+        <v>43316.85259415159</v>
       </c>
       <c r="C20">
-        <v>1539.720669006951</v>
+        <v>1539.719308815881</v>
       </c>
       <c r="D20">
         <v>0.002180752785002942</v>
@@ -4616,10 +4616,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42525.5742741967</v>
+        <v>42551.94243940818</v>
       </c>
       <c r="C21">
-        <v>1519.351070537024</v>
+        <v>1519.349719155987</v>
       </c>
       <c r="D21">
         <v>0.002098175197505874</v>
@@ -4645,10 +4645,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40120.09776454583</v>
+        <v>40145.66534130852</v>
       </c>
       <c r="C22">
-        <v>1496.585792400306</v>
+        <v>1496.584482049808</v>
       </c>
       <c r="D22">
         <v>0.00203110697161202</v>
@@ -4674,10 +4674,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41761.92578480371</v>
+        <v>41787.0636567379</v>
       </c>
       <c r="C23">
-        <v>1474.104876825643</v>
+        <v>1474.103588497723</v>
       </c>
       <c r="D23">
         <v>0.002059374277725207</v>
@@ -4703,10 +4703,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>41329.7384338007</v>
+        <v>41355.26186454005</v>
       </c>
       <c r="C24">
-        <v>1474.121131108221</v>
+        <v>1474.119823020229</v>
       </c>
       <c r="D24">
         <v>0.002070013187151124</v>
@@ -4732,10 +4732,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>39929.31424280056</v>
+        <v>39953.72058641627</v>
       </c>
       <c r="C25">
-        <v>1404.512044860041</v>
+        <v>1404.510794023295</v>
       </c>
       <c r="D25">
         <v>0.001908855143579313</v>
@@ -4761,10 +4761,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>41776.77489262057</v>
+        <v>41801.52683898831</v>
       </c>
       <c r="C26">
-        <v>1522.899244095235</v>
+        <v>1522.897975546184</v>
       </c>
       <c r="D26">
         <v>0.002023368443622624</v>
@@ -4790,10 +4790,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>42416.62724951234</v>
+        <v>42442.25013977227</v>
       </c>
       <c r="C27">
-        <v>1472.07274261658</v>
+        <v>1472.07142943124</v>
       </c>
       <c r="D27">
         <v>0.002025572461344485</v>
@@ -4819,10 +4819,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>41801.74145433759</v>
+        <v>41827.4468229589</v>
       </c>
       <c r="C28">
-        <v>1512.926391814824</v>
+        <v>1512.925074402428</v>
       </c>
       <c r="D28">
         <v>0.002055174219528085</v>
@@ -4848,10 +4848,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>38624.84598801011</v>
+        <v>38648.96722521795</v>
       </c>
       <c r="C29">
-        <v>1391.141446629188</v>
+        <v>1391.140210404282</v>
       </c>
       <c r="D29">
         <v>0.001894271412999196</v>
@@ -4877,10 +4877,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>39486.69629279737</v>
+        <v>39510.49037743648</v>
       </c>
       <c r="C30">
-        <v>1333.351904045145</v>
+        <v>1333.350684586964</v>
       </c>
       <c r="D30">
         <v>0.001949249014328264</v>
@@ -4906,10 +4906,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>40513.85239397199</v>
+        <v>40538.56089930091</v>
       </c>
       <c r="C31">
-        <v>1410.949125820005</v>
+        <v>1410.947859497328</v>
       </c>
       <c r="D31">
         <v>0.001988704773653694</v>
@@ -4935,10 +4935,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>42070.32445180447</v>
+        <v>42095.70714031246</v>
       </c>
       <c r="C32">
-        <v>1501.964708298294</v>
+        <v>1501.963407423408</v>
       </c>
       <c r="D32">
         <v>0.002086440039703281</v>
@@ -4964,10 +4964,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>41741.90816345477</v>
+        <v>41767.61277817396</v>
       </c>
       <c r="C33">
-        <v>1504.963656345085</v>
+        <v>1504.962338971327</v>
       </c>
       <c r="D33">
         <v>0.002105675199656706</v>
@@ -4993,10 +4993,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>41271.83727826099</v>
+        <v>41297.42283491895</v>
       </c>
       <c r="C34">
-        <v>1482.586775792161</v>
+        <v>1482.585464520186</v>
       </c>
       <c r="D34">
         <v>0.002026338977980825</v>
@@ -5022,10 +5022,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>40741.15353600996</v>
+        <v>40765.91974966537</v>
       </c>
       <c r="C35">
-        <v>1414.919294170196</v>
+        <v>1414.91802488994</v>
       </c>
       <c r="D35">
         <v>0.002005122869795311</v>
@@ -5051,10 +5051,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>40669.4168973274</v>
+        <v>40694.12237745907</v>
       </c>
       <c r="C36">
-        <v>1415.421905508913</v>
+        <v>1415.420639341279</v>
       </c>
       <c r="D36">
         <v>0.001970107371237456</v>
@@ -5080,10 +5080,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42288.48212948885</v>
+        <v>42314.10275691975</v>
       </c>
       <c r="C37">
-        <v>1427.27305276532</v>
+        <v>1427.271739695951</v>
       </c>
       <c r="D37">
         <v>0.002036814038805585</v>
@@ -5109,10 +5109,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>42433.93005474116</v>
+        <v>42459.70087709341</v>
       </c>
       <c r="C38">
-        <v>1486.506786201695</v>
+        <v>1486.505465434765</v>
       </c>
       <c r="D38">
         <v>0.00211097018177725</v>
@@ -5138,10 +5138,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>41759.39196144966</v>
+        <v>41785.06461744269</v>
       </c>
       <c r="C39">
-        <v>1465.63314944512</v>
+        <v>1465.631833709262</v>
       </c>
       <c r="D39">
         <v>0.00213110442213305</v>
@@ -5167,10 +5167,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>42170.21726940979</v>
+        <v>42195.92769228073</v>
       </c>
       <c r="C40">
-        <v>1516.39220285131</v>
+        <v>1516.390885179881</v>
       </c>
       <c r="D40">
         <v>0.002089841656035718</v>
@@ -5196,10 +5196,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>41760.9885544211</v>
+        <v>41786.56132255945</v>
       </c>
       <c r="C41">
-        <v>1484.552865032171</v>
+        <v>1484.551554415613</v>
       </c>
       <c r="D41">
         <v>0.00211533327534781</v>
@@ -5225,10 +5225,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>41101.00230456617</v>
+        <v>41126.40263727835</v>
       </c>
       <c r="C42">
-        <v>1486.083258166703</v>
+        <v>1486.081956387543</v>
       </c>
       <c r="D42">
         <v>0.002029465245350436</v>
@@ -5254,10 +5254,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>39122.34258633386</v>
+        <v>39147.02541829379</v>
       </c>
       <c r="C43">
-        <v>1399.072395784774</v>
+        <v>1399.07113077787</v>
       </c>
       <c r="D43">
         <v>0.002014837009253258</v>
@@ -5283,10 +5283,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>41954.28399120455</v>
+        <v>41979.52951538756</v>
       </c>
       <c r="C44">
-        <v>1483.552602534678</v>
+        <v>1483.551308689529</v>
       </c>
       <c r="D44">
         <v>0.002036239470678681</v>
@@ -5312,10 +5312,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>42034.69658502559</v>
+        <v>42060.30306318783</v>
       </c>
       <c r="C45">
-        <v>1485.534227157875</v>
+        <v>1485.532914813662</v>
       </c>
       <c r="D45">
         <v>0.002072482140290387</v>
@@ -5341,10 +5341,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>41138.31052887823</v>
+        <v>41163.79723100038</v>
       </c>
       <c r="C46">
-        <v>1492.551969155505</v>
+        <v>1492.550662949871</v>
       </c>
       <c r="D46">
         <v>0.002048178370454681</v>
@@ -5370,10 +5370,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>39847.72572150239</v>
+        <v>39872.44917510532</v>
       </c>
       <c r="C47">
-        <v>1419.944394119508</v>
+        <v>1419.943127030725</v>
       </c>
       <c r="D47">
         <v>0.001963691816171652</v>
@@ -5399,10 +5399,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>37535.35501679898</v>
+        <v>37558.6532022205</v>
       </c>
       <c r="C48">
-        <v>1360.841121088285</v>
+        <v>1360.839927045175</v>
       </c>
       <c r="D48">
         <v>0.001905247876186407</v>
@@ -5428,10 +5428,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>41288.99836813219</v>
+        <v>41312.8940388868</v>
       </c>
       <c r="C49">
-        <v>1456.225764687283</v>
+        <v>1456.224540022766</v>
       </c>
       <c r="D49">
         <v>0.001991383508883016</v>
@@ -5457,10 +5457,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>39010.03449247684</v>
+        <v>39034.84716372016</v>
       </c>
       <c r="C50">
-        <v>1364.725194081228</v>
+        <v>1364.723922419999</v>
       </c>
       <c r="D50">
         <v>0.001937558562881378</v>
@@ -5486,10 +5486,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>39881.75931261313</v>
+        <v>39905.36498156509</v>
       </c>
       <c r="C51">
-        <v>1370.672811497417</v>
+        <v>1370.671601695631</v>
       </c>
       <c r="D51">
         <v>0.001968677097112797</v>
@@ -5515,10 +5515,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>40635.04200494602</v>
+        <v>40659.71950113886</v>
       </c>
       <c r="C52">
-        <v>1426.37645133747</v>
+        <v>1426.375186604026</v>
       </c>
       <c r="D52">
         <v>0.002025195744006433</v>
@@ -5544,10 +5544,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>41433.03741349513</v>
+        <v>41457.98036437792</v>
       </c>
       <c r="C53">
-        <v>1482.588276574245</v>
+        <v>1482.586998236122</v>
       </c>
       <c r="D53">
         <v>0.002021889930540581</v>
@@ -5573,10 +5573,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>42158.27864335626</v>
+        <v>42183.9609609318</v>
       </c>
       <c r="C54">
-        <v>1476.067740612434</v>
+        <v>1476.066424381415</v>
       </c>
       <c r="D54">
         <v>0.002051055069182853</v>
@@ -5602,10 +5602,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>41990.75090721176</v>
+        <v>42016.42380883721</v>
       </c>
       <c r="C55">
-        <v>1467.115154366972</v>
+        <v>1467.113838618525</v>
       </c>
       <c r="D55">
         <v>0.002063533218962109</v>
@@ -5631,10 +5631,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>52840.16267375412</v>
+        <v>52868.64878557815</v>
       </c>
       <c r="C56">
-        <v>1748.298049620308</v>
+        <v>1748.296589693497</v>
       </c>
       <c r="D56">
         <v>0.002393970734872456</v>
@@ -5660,10 +5660,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>65698.52601112977</v>
+        <v>65734.04280427865</v>
       </c>
       <c r="C57">
-        <v>2180.66444019446</v>
+        <v>2180.66261994188</v>
       </c>
       <c r="D57">
         <v>0.003137298166809209</v>
@@ -5689,10 +5689,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>11546.92857453339</v>
+        <v>11568.4662860719</v>
       </c>
       <c r="C58">
-        <v>719.9910775204279</v>
+        <v>719.9899737024444</v>
       </c>
       <c r="D58">
         <v>0.001070464296978929</v>
@@ -5718,10 +5718,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>829.4067564525027</v>
+        <v>831.1081844913231</v>
       </c>
       <c r="C59">
-        <v>67.69700017025886</v>
+        <v>67.6969129712608</v>
       </c>
       <c r="D59">
         <v>5.663084673521693E-05</v>
@@ -5747,10 +5747,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>77.78133350641301</v>
+        <v>77.90775499050608</v>
       </c>
       <c r="C60">
-        <v>1.051736415066742</v>
+        <v>1.051729935905416</v>
       </c>
       <c r="D60">
         <v>9.478814118852858E-06</v>
@@ -5776,10 +5776,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>9.200596178848587</v>
+        <v>9.209566153709211</v>
       </c>
       <c r="C61">
-        <v>-2.427685149141887</v>
+        <v>-2.427685608857375</v>
       </c>
       <c r="D61">
         <v>5.544165916942437E-06</v>
@@ -5805,10 +5805,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.715274404733978</v>
+        <v>7.716180339127146</v>
       </c>
       <c r="C62">
-        <v>3.546396396226327</v>
+        <v>3.546396349796757</v>
       </c>
       <c r="D62">
         <v>-4.979133926877713E-06</v>
@@ -5834,10 +5834,10 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>41789.25817347908</v>
+        <v>41814.4868309736</v>
       </c>
       <c r="C64">
-        <v>1484.996073485801</v>
+        <v>1484.99473410514</v>
       </c>
       <c r="D64">
         <v>0.002053114644355469</v>
@@ -5863,10 +5863,10 @@
         <v>10</v>
       </c>
       <c r="B65">
-        <v>1.366367151047672</v>
+        <v>1.366074292484138</v>
       </c>
       <c r="C65">
-        <v>2.797145331446285</v>
+        <v>2.797146439402625</v>
       </c>
       <c r="D65">
         <v>2.851152062756254</v>
@@ -5971,10 +5971,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8079.721426011477</v>
+        <v>8124.178693031164</v>
       </c>
       <c r="C3">
-        <v>10890.91629572596</v>
+        <v>10890.91401726984</v>
       </c>
       <c r="D3">
         <v>0.0007492137566136713</v>
@@ -6000,10 +6000,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8285.1167747489</v>
+        <v>8329.840638645215</v>
       </c>
       <c r="C4">
-        <v>10847.57325381749</v>
+        <v>10847.57096169815</v>
       </c>
       <c r="D4">
         <v>0.0007809593861838536</v>
@@ -6029,10 +6029,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8110.774584571542</v>
+        <v>8155.548420715812</v>
       </c>
       <c r="C5">
-        <v>10660.32453058775</v>
+        <v>10660.3222359073</v>
       </c>
       <c r="D5">
         <v>0.0007168005496747483</v>
@@ -6058,10 +6058,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7884.502692272782</v>
+        <v>7928.479579039938</v>
       </c>
       <c r="C6">
-        <v>10592.11899884012</v>
+        <v>10592.11674500371</v>
       </c>
       <c r="D6">
         <v>0.0007559943552984512</v>
@@ -6087,10 +6087,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8088.00456236003</v>
+        <v>8132.642712238398</v>
       </c>
       <c r="C7">
-        <v>10912.32818940643</v>
+        <v>10912.32590167997</v>
       </c>
       <c r="D7">
         <v>0.0007730235943060208</v>
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7882.582616367763</v>
+        <v>7925.006982059522</v>
       </c>
       <c r="C8">
-        <v>10214.14721434345</v>
+        <v>10214.14504007448</v>
       </c>
       <c r="D8">
         <v>0.0007371169030461727</v>
@@ -6145,10 +6145,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8012.206488535778</v>
+        <v>8055.962244367334</v>
       </c>
       <c r="C9">
-        <v>10924.29811681098</v>
+        <v>10924.29587430763</v>
       </c>
       <c r="D9">
         <v>0.0007722332169398637</v>
@@ -6174,10 +6174,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8314.668897008019</v>
+        <v>8358.235261040372</v>
       </c>
       <c r="C10">
-        <v>10879.4631142343</v>
+        <v>10879.46088143738</v>
       </c>
       <c r="D10">
         <v>0.0007543042968414088</v>
@@ -6203,10 +6203,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8156.156262690396</v>
+        <v>8201.358492481744</v>
       </c>
       <c r="C11">
-        <v>10904.34767322754</v>
+        <v>10904.34535659171</v>
       </c>
       <c r="D11">
         <v>0.0007800594254871094</v>
@@ -6232,10 +6232,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8029.144353187876</v>
+        <v>8073.880945341231</v>
       </c>
       <c r="C12">
-        <v>10660.82700341173</v>
+        <v>10660.82471064006</v>
       </c>
       <c r="D12">
         <v>0.0007790182634469837</v>
@@ -6261,10 +6261,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7837.852968204199</v>
+        <v>7881.177938200034</v>
       </c>
       <c r="C13">
-        <v>10722.11504042164</v>
+        <v>10722.11281999628</v>
       </c>
       <c r="D13">
         <v>0.0007854221556229852</v>
@@ -6290,10 +6290,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8131.445607696538</v>
+        <v>8176.461296994265</v>
       </c>
       <c r="C14">
-        <v>10922.77878387272</v>
+        <v>10922.77647679719</v>
       </c>
       <c r="D14">
         <v>0.0007805368454480037</v>
@@ -6319,10 +6319,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8067.229580308042</v>
+        <v>8110.247637825695</v>
       </c>
       <c r="C15">
-        <v>10301.28128050457</v>
+        <v>10301.27907580861</v>
       </c>
       <c r="D15">
         <v>0.0007579707312093216</v>
@@ -6348,10 +6348,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8466.593804075244</v>
+        <v>8511.107161536649</v>
       </c>
       <c r="C16">
-        <v>11190.70959492707</v>
+        <v>11190.70731359628</v>
       </c>
       <c r="D16">
         <v>0.000761854965338844</v>
@@ -6377,10 +6377,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8038.101370235574</v>
+        <v>8083.338194624624</v>
       </c>
       <c r="C17">
-        <v>10911.32561864903</v>
+        <v>10911.32330024022</v>
       </c>
       <c r="D17">
         <v>0.0007726484155857651</v>
@@ -6406,10 +6406,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8105.156662354585</v>
+        <v>8149.575717073011</v>
       </c>
       <c r="C18">
-        <v>10644.89127580262</v>
+        <v>10644.88899930489</v>
       </c>
       <c r="D18">
         <v>0.0007630346130178274</v>
@@ -6435,10 +6435,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8047.121192831235</v>
+        <v>8091.808425016612</v>
       </c>
       <c r="C19">
-        <v>10742.0047945523</v>
+        <v>10742.00250431035</v>
       </c>
       <c r="D19">
         <v>0.0007506753197499002</v>
@@ -6464,10 +6464,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8054.371795947773</v>
+        <v>8098.782398259875</v>
       </c>
       <c r="C20">
-        <v>10748.98083571368</v>
+        <v>10748.97855964914</v>
       </c>
       <c r="D20">
         <v>0.0007759724431325919</v>
@@ -6493,10 +6493,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7987.008709689589</v>
+        <v>8031.061076311138</v>
       </c>
       <c r="C21">
-        <v>10494.99845040363</v>
+        <v>10494.99619269884</v>
       </c>
       <c r="D21">
         <v>0.0007889823010897734</v>
@@ -6522,10 +6522,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7805.749934671263</v>
+        <v>7848.812187272268</v>
       </c>
       <c r="C22">
-        <v>10388.94516523793</v>
+        <v>10388.94295827696</v>
       </c>
       <c r="D22">
         <v>0.0007128069577574999</v>
@@ -6551,10 +6551,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8058.648250332827</v>
+        <v>8100.299732172794</v>
       </c>
       <c r="C23">
-        <v>10401.9014156935</v>
+        <v>10401.8992810352</v>
       </c>
       <c r="D23">
         <v>0.0008448822892822568</v>
@@ -6580,10 +6580,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7991.565083438292</v>
+        <v>8036.037249803743</v>
       </c>
       <c r="C24">
-        <v>10653.86073244817</v>
+        <v>10653.85845322845</v>
       </c>
       <c r="D24">
         <v>0.0007556818463408867</v>
@@ -6609,10 +6609,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8018.689430887542</v>
+        <v>8061.448431139069</v>
       </c>
       <c r="C25">
-        <v>10292.82152924863</v>
+        <v>10292.81933782949</v>
       </c>
       <c r="D25">
         <v>0.0007366339785200663</v>
@@ -6638,10 +6638,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8179.215479658104</v>
+        <v>8222.291566393133</v>
       </c>
       <c r="C26">
-        <v>10680.76560078778</v>
+        <v>10680.7633931178</v>
       </c>
       <c r="D26">
         <v>0.0007369749778035978</v>
@@ -6667,10 +6667,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8288.731357731649</v>
+        <v>8332.833786855103</v>
       </c>
       <c r="C27">
-        <v>10907.34569687761</v>
+        <v>10907.34343660709</v>
       </c>
       <c r="D27">
         <v>0.0007837465311563555</v>
@@ -6696,10 +6696,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7913.741909987648</v>
+        <v>7958.352471238954</v>
       </c>
       <c r="C28">
-        <v>10483.53969657587</v>
+        <v>10483.53741026334</v>
       </c>
       <c r="D28">
         <v>0.00070551638669567</v>
@@ -6725,10 +6725,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8327.164619468398</v>
+        <v>8370.685129201354</v>
       </c>
       <c r="C29">
-        <v>10702.16625741322</v>
+        <v>10702.16402696635</v>
       </c>
       <c r="D29">
         <v>0.0007423684663307209</v>
@@ -6754,10 +6754,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7597.457432088655</v>
+        <v>7641.154492922531</v>
       </c>
       <c r="C30">
-        <v>10284.36266303108</v>
+        <v>10284.36042353589</v>
       </c>
       <c r="D30">
         <v>0.0007302480687269321</v>
@@ -6783,10 +6783,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8136.370511029639</v>
+        <v>8178.477920590171</v>
       </c>
       <c r="C31">
-        <v>10511.95316102331</v>
+        <v>10511.9510029985</v>
       </c>
       <c r="D31">
         <v>0.0007446557909664981</v>
@@ -6812,10 +6812,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7756.739935113528</v>
+        <v>7800.997016019519</v>
       </c>
       <c r="C32">
-        <v>10746.01022649829</v>
+        <v>10746.0079583018</v>
       </c>
       <c r="D32">
         <v>0.0007851521477903302</v>
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>8056.510023140299</v>
+        <v>8099.541065216335</v>
       </c>
       <c r="C34">
-        <v>10680.76560078778</v>
+        <v>10680.7633931178</v>
       </c>
       <c r="D34">
         <v>0.0007579707312093216</v>
@@ -6870,10 +6870,10 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.6902169674367614</v>
+        <v>0.6870652832233058</v>
       </c>
       <c r="C35">
-        <v>0.7718389609037956</v>
+        <v>0.7718390113104088</v>
       </c>
       <c r="D35">
         <v>1.143559366995671</v>
@@ -6908,7 +6908,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
@@ -6978,10 +6978,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5993.984694296614</v>
+        <v>5996.527894453707</v>
       </c>
       <c r="C3">
-        <v>36.57365023898237</v>
+        <v>36.57351989876197</v>
       </c>
       <c r="D3">
         <v>0.0004485185442628025</v>
@@ -7007,10 +7007,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6101.509088309291</v>
+        <v>6104.081566238794</v>
       </c>
       <c r="C4">
-        <v>33.08306485359247</v>
+        <v>33.08293301287228</v>
       </c>
       <c r="D4">
         <v>0.0004257557176580624</v>
@@ -7036,10 +7036,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6070.172933333085</v>
+        <v>6072.711917886005</v>
       </c>
       <c r="C5">
-        <v>30.09830208597725</v>
+        <v>30.09817196180857</v>
       </c>
       <c r="D5">
         <v>0.0004167582869056895</v>
@@ -7065,10 +7065,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6110.006763002185</v>
+        <v>6112.546756637885</v>
       </c>
       <c r="C6">
-        <v>37.56355416611516</v>
+        <v>37.56342399023051</v>
       </c>
       <c r="D6">
         <v>0.0004148173681702745</v>
@@ -7094,10 +7094,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5970.610724455456</v>
+        <v>5973.125266493253</v>
       </c>
       <c r="C7">
-        <v>35.08187270102565</v>
+        <v>35.08174382954753</v>
       </c>
       <c r="D7">
         <v>0.000438050326832364</v>
@@ -7123,10 +7123,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5938.206506467887</v>
+        <v>5940.759290811963</v>
       </c>
       <c r="C8">
-        <v>33.58942053720457</v>
+        <v>33.58928970579001</v>
       </c>
       <c r="D8">
         <v>0.0004533411538540691</v>
@@ -7152,10 +7152,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5761.997707466291</v>
+        <v>5764.492220475558</v>
       </c>
       <c r="C9">
-        <v>35.59073037173154</v>
+        <v>35.59060252675067</v>
       </c>
       <c r="D9">
         <v>0.0004291699123890025</v>
@@ -7181,10 +7181,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5855.120575940059</v>
+        <v>5857.605276580257</v>
       </c>
       <c r="C10">
-        <v>28.61690291449639</v>
+        <v>28.61677557240412</v>
       </c>
       <c r="D10">
         <v>0.0003716505172334207</v>
@@ -7210,10 +7210,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5759.496179853709</v>
+        <v>5762.002451560888</v>
       </c>
       <c r="C11">
-        <v>38.07951534881967</v>
+        <v>38.07938690119993</v>
       </c>
       <c r="D11">
         <v>0.0004845162943305646</v>
@@ -7239,10 +7239,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6033.836193305351</v>
+        <v>6036.362772703982</v>
       </c>
       <c r="C12">
-        <v>36.571939510863</v>
+        <v>36.5718100224644</v>
       </c>
       <c r="D12">
         <v>0.0004318742270075671</v>
@@ -7268,10 +7268,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5996.49737723819</v>
+        <v>5999.017778807964</v>
       </c>
       <c r="C13">
-        <v>28.11118468042334</v>
+        <v>28.1110555086414</v>
       </c>
       <c r="D13">
         <v>0.0003949389914110728</v>
@@ -7297,10 +7297,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5827.724672398291</v>
+        <v>5830.218966951804</v>
       </c>
       <c r="C14">
-        <v>39.07200342249091</v>
+        <v>39.071875588706</v>
       </c>
       <c r="D14">
         <v>0.0004504613162727907</v>
@@ -7326,10 +7326,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5784.383799517643</v>
+        <v>5786.898868852436</v>
       </c>
       <c r="C15">
-        <v>34.09573965223068</v>
+        <v>34.09561075372834</v>
       </c>
       <c r="D15">
         <v>0.0004441671802518786</v>
@@ -7355,10 +7355,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5843.1809123659</v>
+        <v>5845.654996528537</v>
       </c>
       <c r="C16">
-        <v>37.57812170789999</v>
+        <v>37.57799490990726</v>
       </c>
       <c r="D16">
         <v>0.000437051966411978</v>
@@ -7384,10 +7384,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5907.335570361628</v>
+        <v>5909.887507577258</v>
       </c>
       <c r="C17">
-        <v>38.07160467399787</v>
+        <v>38.07147388599905</v>
       </c>
       <c r="D17">
         <v>0.0004097000725382151</v>
@@ -7413,10 +7413,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6070.185657418278</v>
+        <v>6072.712014060053</v>
       </c>
       <c r="C18">
-        <v>29.10272234182462</v>
+        <v>29.10259286484241</v>
       </c>
       <c r="D18">
         <v>0.0004440491265963431</v>
@@ -7442,10 +7442,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5982.052249107555</v>
+        <v>5984.577634882108</v>
       </c>
       <c r="C19">
-        <v>32.09410859769643</v>
+        <v>32.09397917047163</v>
       </c>
       <c r="D19">
         <v>0.0004575769959571538</v>
@@ -7471,10 +7471,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5938.238204635138</v>
+        <v>5940.759566429037</v>
       </c>
       <c r="C20">
-        <v>35.58127716949665</v>
+        <v>35.58114794850278</v>
       </c>
       <c r="D20">
         <v>0.0004320508683003859</v>
@@ -7500,10 +7500,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5938.748597513679</v>
+        <v>5941.257617754342</v>
       </c>
       <c r="C21">
-        <v>34.58596038160563</v>
+        <v>34.58583179312225</v>
       </c>
       <c r="D21">
         <v>0.0003981741548136918</v>
@@ -7529,10 +7529,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5854.098310983029</v>
+        <v>5856.609160062089</v>
       </c>
       <c r="C22">
-        <v>28.61617999613048</v>
+        <v>28.61605131391824</v>
       </c>
       <c r="D22">
         <v>0.0004507547819002531</v>
@@ -7558,10 +7558,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5888.462309166473</v>
+        <v>5890.966517513031</v>
       </c>
       <c r="C23">
-        <v>32.09965833281606</v>
+        <v>32.09952999094454</v>
       </c>
       <c r="D23">
         <v>0.0003673565265599714</v>
@@ -7587,10 +7587,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5764.977723614687</v>
+        <v>5767.479744762755</v>
       </c>
       <c r="C24">
-        <v>37.58188479963705</v>
+        <v>37.58175656986049</v>
       </c>
       <c r="D24">
         <v>0.0003997623824957118</v>
@@ -7616,10 +7616,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5654.640234804695</v>
+        <v>5656.941365813315</v>
       </c>
       <c r="C25">
-        <v>35.59933432623318</v>
+        <v>35.59921639217203</v>
       </c>
       <c r="D25">
         <v>0.0003935944664760808</v>
@@ -7645,10 +7645,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5833.216922851102</v>
+        <v>5835.696350891446</v>
       </c>
       <c r="C26">
-        <v>22.64413408579261</v>
+        <v>22.64400701392359</v>
       </c>
       <c r="D26">
         <v>0.0003995279709668456</v>
@@ -7674,10 +7674,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5824.745593482102</v>
+        <v>5827.231470118342</v>
       </c>
       <c r="C27">
-        <v>35.0898992428806</v>
+        <v>35.08977184051797</v>
       </c>
       <c r="D27">
         <v>0.0004137607264428577</v>
@@ -7703,10 +7703,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5979.096445173941</v>
+        <v>5981.590304920513</v>
       </c>
       <c r="C28">
-        <v>39.06425523724774</v>
+        <v>39.0641274257469</v>
       </c>
       <c r="D28">
         <v>0.0004498143496145746</v>
@@ -7732,10 +7732,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5890.441122885866</v>
+        <v>5892.958106101908</v>
       </c>
       <c r="C29">
-        <v>32.09901138044366</v>
+        <v>32.09888238385398</v>
       </c>
       <c r="D29">
         <v>0.0004408145871670976</v>
@@ -7761,10 +7761,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5990.525069625868</v>
+        <v>5993.042590680147</v>
       </c>
       <c r="C30">
-        <v>35.57874243921373</v>
+        <v>35.57861341505959</v>
       </c>
       <c r="D30">
         <v>0.0004139359891954139</v>
@@ -7790,10 +7790,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6018.275567887285</v>
+        <v>6020.925723288045</v>
       </c>
       <c r="C31">
-        <v>35.07699914052595</v>
+        <v>35.07686331879833</v>
       </c>
       <c r="D31">
         <v>0.000516332342015738</v>
@@ -7819,10 +7819,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5902.397670947017</v>
+        <v>5904.908507422784</v>
       </c>
       <c r="C32">
-        <v>40.06342154935179</v>
+        <v>40.06329286778548</v>
       </c>
       <c r="D32">
         <v>0.000480575280700393</v>
@@ -7848,10 +7848,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5997.019389189767</v>
+        <v>5999.515912475624</v>
       </c>
       <c r="C33">
-        <v>31.59622394211608</v>
+        <v>31.59609599410759</v>
       </c>
       <c r="D33">
         <v>0.0004022915766576991</v>
@@ -7877,10 +7877,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5991.034091578293</v>
+        <v>5993.540617536838</v>
       </c>
       <c r="C34">
-        <v>32.59196034219508</v>
+        <v>32.59183188154483</v>
       </c>
       <c r="D34">
         <v>0.0004145245442713976</v>
@@ -7906,10 +7906,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5767.487603063953</v>
+        <v>5769.969561265838</v>
       </c>
       <c r="C35">
-        <v>42.06242979628643</v>
+        <v>42.06230259474543</v>
       </c>
       <c r="D35">
         <v>0.0004021156787666096</v>
@@ -7935,10 +7935,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5923.871140744947</v>
+        <v>5926.320101768142</v>
       </c>
       <c r="C36">
-        <v>36.57832865057554</v>
+        <v>36.57820314015567</v>
       </c>
       <c r="D36">
         <v>0.0005202220137892184</v>
@@ -7964,10 +7964,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6004.967263553411</v>
+        <v>6007.482675320357</v>
       </c>
       <c r="C37">
-        <v>35.08004885882062</v>
+        <v>35.07991994276846</v>
       </c>
       <c r="D37">
         <v>0.0004484607645046859</v>
@@ -7993,10 +7993,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6092.61433421486</v>
+        <v>6095.119290568219</v>
       </c>
       <c r="C38">
-        <v>37.06702841697614</v>
+        <v>37.06690003676891</v>
       </c>
       <c r="D38">
         <v>0.000441579645087651</v>
@@ -8022,10 +8022,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5830.744524832873</v>
+        <v>5833.206836723279</v>
       </c>
       <c r="C39">
-        <v>36.58340311468891</v>
+        <v>36.58327692003073</v>
       </c>
       <c r="D39">
         <v>0.0004149967100099451</v>
@@ -8051,10 +8051,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5789.906006064582</v>
+        <v>5792.376471609288</v>
       </c>
       <c r="C40">
-        <v>35.58954568409156</v>
+        <v>35.58941907155472</v>
       </c>
       <c r="D40">
         <v>0.0004539912103165163</v>
@@ -8080,10 +8080,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6038.83429294411</v>
+        <v>6041.342243584731</v>
       </c>
       <c r="C41">
-        <v>36.07375802350253</v>
+        <v>36.07362948983665</v>
       </c>
       <c r="D41">
         <v>0.0005128084196436093</v>
@@ -8109,10 +8109,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5942.246716060729</v>
+        <v>5944.743239346586</v>
       </c>
       <c r="C42">
-        <v>40.55965018277532</v>
+        <v>40.55952223476682</v>
       </c>
       <c r="D42">
         <v>0.0004317577173169866</v>
@@ -8138,10 +8138,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5812.370591064434</v>
+        <v>5814.783834683824</v>
       </c>
       <c r="C43">
-        <v>38.0786430865567</v>
+        <v>38.07851940667081</v>
       </c>
       <c r="D43">
         <v>0.0003952958694920646</v>
@@ -8167,10 +8167,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5861.12745469241</v>
+        <v>5863.580697518086</v>
       </c>
       <c r="C44">
-        <v>30.60811397557003</v>
+        <v>30.60798824570574</v>
       </c>
       <c r="D44">
         <v>0.0004212314083586838</v>
@@ -8196,10 +8196,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6025.928036558777</v>
+        <v>6028.396294992011</v>
       </c>
       <c r="C45">
-        <v>31.0969471427677</v>
+        <v>31.09682064334638</v>
       </c>
       <c r="D45">
         <v>0.0004865763683380836</v>
@@ -8225,10 +8225,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6039.335666041936</v>
+        <v>6041.840244187626</v>
       </c>
       <c r="C46">
-        <v>31.09602331377881</v>
+        <v>31.09589495295491</v>
       </c>
       <c r="D46">
         <v>0.0004210530483746192</v>
@@ -8254,10 +8254,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6010.455360493336</v>
+        <v>6012.960041595156</v>
       </c>
       <c r="C47">
-        <v>38.56468228904129</v>
+        <v>38.56455392294083</v>
       </c>
       <c r="D47">
         <v>0.000445990873876423</v>
@@ -8283,10 +8283,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6110.547655002329</v>
+        <v>6113.045050073861</v>
       </c>
       <c r="C48">
-        <v>32.08810015112984</v>
+        <v>32.08797215844191</v>
       </c>
       <c r="D48">
         <v>0.000425699703786615</v>
@@ -8312,10 +8312,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5989.062238437456</v>
+        <v>5991.549026497621</v>
       </c>
       <c r="C49">
-        <v>37.57027768068902</v>
+        <v>37.57015023161548</v>
       </c>
       <c r="D49">
         <v>0.0004735768084428021</v>
@@ -8341,10 +8341,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6071.719213615173</v>
+        <v>6074.206157081768</v>
       </c>
       <c r="C50">
-        <v>42.54441132856882</v>
+        <v>42.54428387153062</v>
       </c>
       <c r="D50">
         <v>0.0004378160929270382</v>
@@ -8370,10 +8370,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5919.359967238054</v>
+        <v>5921.838505040693</v>
       </c>
       <c r="C51">
-        <v>29.11135177287034</v>
+        <v>29.11122474662643</v>
       </c>
       <c r="D51">
         <v>0.0004075855015384634</v>
@@ -8399,10 +8399,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5660.474911479737</v>
+        <v>5662.915308948704</v>
       </c>
       <c r="C52">
-        <v>37.09036484491992</v>
+        <v>37.09023977338629</v>
       </c>
       <c r="D52">
         <v>0.0003976473934752146</v>
@@ -8428,10 +8428,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5928.837666433318</v>
+        <v>5931.299352651232</v>
       </c>
       <c r="C53">
-        <v>32.09790655245121</v>
+        <v>32.09778038985905</v>
       </c>
       <c r="D53">
         <v>0.0004356408496885931</v>
@@ -8457,10 +8457,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5905.937637421448</v>
+        <v>5908.394520188471</v>
       </c>
       <c r="C54">
-        <v>27.61891368152456</v>
+        <v>27.61878776511154</v>
       </c>
       <c r="D54">
         <v>0.0004064688424091452</v>
@@ -8486,10 +8486,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5981.121645454601</v>
+        <v>5983.582319702272</v>
       </c>
       <c r="C55">
-        <v>33.09080163027984</v>
+        <v>33.09067551955164</v>
       </c>
       <c r="D55">
         <v>0.0004524623385762602</v>
@@ -8515,10 +8515,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5951.246922518282</v>
+        <v>5953.706347589661</v>
       </c>
       <c r="C56">
-        <v>33.59029249183248</v>
+        <v>33.59016644512516</v>
       </c>
       <c r="D56">
         <v>0.0004272303160059307</v>
@@ -8544,10 +8544,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6026.396045386765</v>
+        <v>6028.894001353491</v>
       </c>
       <c r="C57">
-        <v>41.55097937658265</v>
+        <v>41.55085135514857</v>
       </c>
       <c r="D57">
         <v>0.000426875986941738</v>
@@ -8573,10 +8573,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5992.038980910377</v>
+        <v>5994.536544039458</v>
       </c>
       <c r="C58">
-        <v>36.57440399194664</v>
+        <v>36.57427599064567</v>
       </c>
       <c r="D58">
         <v>0.0004564016933265889</v>
@@ -8602,10 +8602,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6036.856822540375</v>
+        <v>6039.350652879907</v>
       </c>
       <c r="C59">
-        <v>30.59837953612026</v>
+        <v>30.59825172612654</v>
       </c>
       <c r="D59">
         <v>0.0004448149518456697</v>
@@ -8631,10 +8631,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6013.967794448593</v>
+        <v>6016.445801058786</v>
       </c>
       <c r="C60">
-        <v>37.07137801068486</v>
+        <v>37.07125101166481</v>
       </c>
       <c r="D60">
         <v>0.0004602843525272086</v>
@@ -8660,10 +8660,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6014.95065944157</v>
+        <v>6017.441576505338</v>
       </c>
       <c r="C61">
-        <v>33.58659028103647</v>
+        <v>33.58646262034954</v>
       </c>
       <c r="D61">
         <v>0.0004188774094527711</v>
@@ -8689,10 +8689,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6277.382565561551</v>
+        <v>6279.854345778789</v>
       </c>
       <c r="C62">
-        <v>27.59949757943804</v>
+        <v>27.5993708995236</v>
       </c>
       <c r="D62">
         <v>0.000438522449605354</v>
@@ -8718,10 +8718,10 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>5970.610724455456</v>
+        <v>5973.125266493253</v>
       </c>
       <c r="C64">
-        <v>35.0898992428806</v>
+        <v>35.08977184051797</v>
       </c>
       <c r="D64">
         <v>0.0004318159721622768</v>
@@ -8747,10 +8747,10 @@
         <v>10</v>
       </c>
       <c r="B65">
-        <v>0.434981452663969</v>
+        <v>0.4348548511284533</v>
       </c>
       <c r="C65">
-        <v>2.765378559320526</v>
+        <v>2.765388640843413</v>
       </c>
       <c r="D65">
         <v>1.533306582570531</v>
@@ -8785,7 +8785,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
@@ -8855,10 +8855,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8189.896374315178</v>
+        <v>8233.243327811164</v>
       </c>
       <c r="C3">
-        <v>10792.6284257482</v>
+        <v>10792.62620419617</v>
       </c>
       <c r="D3">
         <v>0.0007477751509283326</v>
@@ -8884,10 +8884,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8199.018705707349</v>
+        <v>8242.208261705928</v>
       </c>
       <c r="C4">
-        <v>10911.65887543254</v>
+        <v>10911.65666194721</v>
       </c>
       <c r="D4">
         <v>0.0006969744232587616</v>
@@ -8913,10 +8913,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8256.45459186416</v>
+        <v>8299.477036612707</v>
       </c>
       <c r="C5">
-        <v>10721.4125706671</v>
+        <v>10721.4103657463</v>
       </c>
       <c r="D5">
         <v>0.0007186201865320719</v>
@@ -8942,10 +8942,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8175.994414529359</v>
+        <v>8218.806566601008</v>
       </c>
       <c r="C6">
-        <v>10564.54278058456</v>
+        <v>10564.54058644136</v>
       </c>
       <c r="D6">
         <v>0.0007334466788600523</v>
@@ -8971,10 +8971,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7812.28769957298</v>
+        <v>7854.791222558528</v>
       </c>
       <c r="C7">
-        <v>10673.6330577389</v>
+        <v>10673.63087941309</v>
       </c>
       <c r="D7">
         <v>0.0006978232530146862</v>
@@ -9000,10 +9000,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7575.652865425616</v>
+        <v>7615.293480986818</v>
       </c>
       <c r="C8">
-        <v>10156.24785147831</v>
+        <v>10156.24581987786</v>
       </c>
       <c r="D8">
         <v>0.0007111019078506621</v>
@@ -9029,10 +9029,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8041.422553283409</v>
+        <v>8082.377250431273</v>
       </c>
       <c r="C9">
-        <v>10375.8285609491</v>
+        <v>10375.82646200135</v>
       </c>
       <c r="D9">
         <v>0.000746747101777245</v>
@@ -9058,10 +9058,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8085.677714606282</v>
+        <v>8128.177730337329</v>
       </c>
       <c r="C10">
-        <v>10704.49639328702</v>
+        <v>10704.49421514095</v>
       </c>
       <c r="D10">
         <v>0.0007279895124080047</v>
@@ -9087,10 +9087,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7962.34743156499</v>
+        <v>8004.68178695621</v>
       </c>
       <c r="C11">
-        <v>10559.08274204876</v>
+        <v>10559.08057239287</v>
       </c>
       <c r="D11">
         <v>0.0007339349420499075</v>
@@ -9116,10 +9116,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8052.035489727737</v>
+        <v>8094.31735233971</v>
       </c>
       <c r="C12">
-        <v>10574.51765140675</v>
+        <v>10574.51548444114</v>
       </c>
       <c r="D12">
         <v>0.0007207059492690519</v>
@@ -9145,10 +9145,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7872.877723164729</v>
+        <v>7915.048375131959</v>
       </c>
       <c r="C13">
-        <v>10500.32347371981</v>
+        <v>10500.3213124538</v>
       </c>
       <c r="D13">
         <v>0.0007248851794969771</v>
@@ -9174,10 +9174,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7558.202954357729</v>
+        <v>7599.83963564723</v>
       </c>
       <c r="C14">
-        <v>10321.06143424321</v>
+        <v>10321.05930034345</v>
       </c>
       <c r="D14">
         <v>0.000687682819358356</v>
@@ -9203,10 +9203,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7762.992067073686</v>
+        <v>7803.517269174462</v>
       </c>
       <c r="C15">
-        <v>10135.30849355614</v>
+        <v>10135.30641662022</v>
       </c>
       <c r="D15">
         <v>0.0006711423014467306</v>
@@ -9232,10 +9232,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7680.434697783577</v>
+        <v>7721.3493247766</v>
       </c>
       <c r="C16">
-        <v>10324.55209107413</v>
+        <v>10324.54999417999</v>
       </c>
       <c r="D16">
         <v>0.0007164054859644991</v>
@@ -9261,10 +9261,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7702.774576586847</v>
+        <v>7742.7697293071</v>
       </c>
       <c r="C17">
-        <v>10137.31169185007</v>
+        <v>10137.30964207943</v>
       </c>
       <c r="D17">
         <v>0.0006655760097954914</v>
@@ -9290,10 +9290,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8151.892468900832</v>
+        <v>8192.433174301426</v>
       </c>
       <c r="C18">
-        <v>10608.90268821803</v>
+        <v>10608.90061048755</v>
       </c>
       <c r="D18">
         <v>0.0006604988216933201</v>
@@ -9319,10 +9319,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8130.790289726768</v>
+        <v>8173.491711746156</v>
       </c>
       <c r="C19">
-        <v>10653.69252454164</v>
+        <v>10653.6903360734</v>
       </c>
       <c r="D19">
         <v>0.0007607365188650507</v>
@@ -9348,10 +9348,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7978.498572949224</v>
+        <v>8021.112431348126</v>
       </c>
       <c r="C20">
-        <v>10778.70500492132</v>
+        <v>10778.70282094076</v>
       </c>
       <c r="D20">
         <v>0.0008869460012227659</v>
@@ -9377,10 +9377,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7946.199090776877</v>
+        <v>7988.744897501831</v>
       </c>
       <c r="C21">
-        <v>10524.71702928367</v>
+        <v>10524.7148487908</v>
       </c>
       <c r="D21">
         <v>0.0007189319882285731</v>
@@ -9406,10 +9406,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7915.313772146611</v>
+        <v>7957.376810405152</v>
       </c>
       <c r="C22">
-        <v>10452.51323372194</v>
+        <v>10452.51107797118</v>
       </c>
       <c r="D22">
         <v>0.0006954287888923048</v>
@@ -9435,10 +9435,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7975.158685790218</v>
+        <v>8017.13416087085</v>
       </c>
       <c r="C23">
-        <v>10490.85903578641</v>
+        <v>10490.85688452331</v>
       </c>
       <c r="D23">
         <v>0.0006797907607215509</v>
@@ -9464,10 +9464,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7858.106600821283</v>
+        <v>7900.110701537126</v>
       </c>
       <c r="C24">
-        <v>10442.55673342192</v>
+        <v>10442.55458069173</v>
       </c>
       <c r="D24">
         <v>0.0006857874532657243</v>
@@ -9493,10 +9493,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7345.945907835916</v>
+        <v>7386.22536228766</v>
       </c>
       <c r="C25">
-        <v>10177.66458966162</v>
+        <v>10177.66252532038</v>
       </c>
       <c r="D25">
         <v>0.0006943192875605101</v>
@@ -9522,10 +9522,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8248.623524670686</v>
+        <v>8291.016756620365</v>
       </c>
       <c r="C26">
-        <v>10789.15375132292</v>
+        <v>10789.15157864957</v>
       </c>
       <c r="D26">
         <v>0.0007364613473812065</v>
@@ -9551,10 +9551,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7872.921461077599</v>
+        <v>7916.036285974192</v>
       </c>
       <c r="C27">
-        <v>10502.79915733627</v>
+        <v>10502.79694768094</v>
       </c>
       <c r="D27">
         <v>0.0007457256229546695</v>
@@ -9580,10 +9580,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8004.787130517057</v>
+        <v>8046.02284976855</v>
       </c>
       <c r="C28">
-        <v>10478.41823043561</v>
+        <v>10478.41611708535</v>
       </c>
       <c r="D28">
         <v>0.0006835816570745798</v>
@@ -9609,10 +9609,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8041.885539368205</v>
+        <v>8084.356272783803</v>
       </c>
       <c r="C29">
-        <v>10757.78765296991</v>
+        <v>10757.78547632457</v>
       </c>
       <c r="D29">
         <v>0.0007272849539499654</v>
@@ -9638,10 +9638,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7855.038321128768</v>
+        <v>7896.628436939676</v>
       </c>
       <c r="C30">
-        <v>10314.57282300655</v>
+        <v>10314.57069149329</v>
       </c>
       <c r="D30">
         <v>0.0006656929042645083</v>
@@ -9667,10 +9667,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8135.982287263665</v>
+        <v>8176.00437060923</v>
       </c>
       <c r="C31">
-        <v>10656.72124625933</v>
+        <v>10656.71919510848</v>
       </c>
       <c r="D31">
         <v>0.0007112052820196623</v>
@@ -9696,10 +9696,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7972.826638475869</v>
+        <v>8016.126948227206</v>
       </c>
       <c r="C32">
-        <v>10636.26099445728</v>
+        <v>10636.25877529576</v>
       </c>
       <c r="D32">
         <v>0.0007116710060311685</v>
@@ -9725,10 +9725,10 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>7975.158685790218</v>
+        <v>8017.13416087085</v>
       </c>
       <c r="C34">
-        <v>10541.89988566622</v>
+        <v>10541.89771059183</v>
       </c>
       <c r="D34">
         <v>0.0007116710060311685</v>
@@ -9754,10 +9754,10 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.887484108572382</v>
+        <v>0.8852196972333353</v>
       </c>
       <c r="C35">
-        <v>0.7289560905050475</v>
+        <v>0.7289561008020502</v>
       </c>
       <c r="D35">
         <v>1.428234275136219</v>
@@ -9862,10 +9862,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>35787.46530756033</v>
+        <v>35801.20097062716</v>
       </c>
       <c r="C3">
-        <v>632.2500108035332</v>
+        <v>632.2493068442532</v>
       </c>
       <c r="D3">
         <v>0.002297597330745754</v>
@@ -9891,10 +9891,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35763.51688619173</v>
+        <v>35777.27267775715</v>
       </c>
       <c r="C4">
-        <v>625.7789252388773</v>
+        <v>625.7782202480021</v>
       </c>
       <c r="D4">
         <v>0.002339512606960876</v>
@@ -9920,10 +9920,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35593.56130957963</v>
+        <v>35607.28434978703</v>
       </c>
       <c r="C5">
-        <v>646.1993071599734</v>
+        <v>646.1986038476209</v>
       </c>
       <c r="D5">
         <v>0.002321558009588263</v>
@@ -9949,10 +9949,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35626.48711271989</v>
+        <v>35640.18548860052</v>
       </c>
       <c r="C6">
-        <v>637.7347823785323</v>
+        <v>637.7340803302383</v>
       </c>
       <c r="D6">
         <v>0.002337159868963616</v>
@@ -9978,10 +9978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34877.24407757135</v>
+        <v>34890.95164980567</v>
       </c>
       <c r="C7">
-        <v>607.9031545129408</v>
+        <v>607.9024519933294</v>
       </c>
       <c r="D7">
         <v>0.002340515231758398</v>
@@ -10007,10 +10007,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34615.30046046556</v>
+        <v>34628.25778795754</v>
       </c>
       <c r="C8">
-        <v>622.3657407310105</v>
+        <v>622.3650766617998</v>
       </c>
       <c r="D8">
         <v>0.002196787934179055</v>
@@ -10036,10 +10036,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35317.09036909867</v>
+        <v>35330.62065204068</v>
       </c>
       <c r="C9">
-        <v>637.7530703900457</v>
+        <v>637.752376956595</v>
       </c>
       <c r="D9">
         <v>0.002361539421549629</v>
@@ -10065,10 +10065,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33564.57478395099</v>
+        <v>33577.48344152569</v>
       </c>
       <c r="C10">
-        <v>616.9441104134928</v>
+        <v>616.9434488386385</v>
       </c>
       <c r="D10">
         <v>0.00221262417623645</v>
@@ -10094,10 +10094,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34601.14349908897</v>
+        <v>34614.29864538651</v>
       </c>
       <c r="C11">
-        <v>625.8479914750734</v>
+        <v>625.8473172675547</v>
       </c>
       <c r="D11">
         <v>0.002258294895714292</v>
@@ -10123,10 +10123,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35199.83528193289</v>
+        <v>35213.47405891652</v>
       </c>
       <c r="C12">
-        <v>599.9225287567148</v>
+        <v>599.9218297628928</v>
       </c>
       <c r="D12">
         <v>0.002307608824073817</v>
@@ -10152,10 +10152,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35347.47191302319</v>
+        <v>35361.02855608057</v>
       </c>
       <c r="C13">
-        <v>668.1189814364906</v>
+        <v>668.1182866520713</v>
       </c>
       <c r="D13">
         <v>0.002334398179939487</v>
@@ -10181,10 +10181,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34535.83965116333</v>
+        <v>34549.49213858147</v>
       </c>
       <c r="C14">
-        <v>636.796166116931</v>
+        <v>636.7954664204427</v>
       </c>
       <c r="D14">
         <v>0.002242205716567107</v>
@@ -10210,10 +10210,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35258.07423373344</v>
+        <v>35271.30258555917</v>
       </c>
       <c r="C15">
-        <v>614.3628296872618</v>
+        <v>614.3621517279247</v>
       </c>
       <c r="D15">
         <v>0.002314217618089421</v>
@@ -10239,10 +10239,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35649.01088177708</v>
+        <v>35662.61874371466</v>
       </c>
       <c r="C16">
-        <v>619.3153158659703</v>
+        <v>619.3146184565592</v>
       </c>
       <c r="D16">
         <v>0.002321738919851571</v>
@@ -10268,10 +10268,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34080.28295948768</v>
+        <v>34093.39289877079</v>
       </c>
       <c r="C17">
-        <v>598.9927544470689</v>
+        <v>598.992082556431</v>
       </c>
       <c r="D17">
         <v>0.002204669989675161</v>
@@ -10297,10 +10297,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34679.40887593808</v>
+        <v>34692.56015503904</v>
       </c>
       <c r="C18">
-        <v>594.4811307691518</v>
+        <v>594.4804567598286</v>
       </c>
       <c r="D18">
         <v>0.002166113256086855</v>
@@ -10326,10 +10326,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35570.67846566851</v>
+        <v>35584.35383987724</v>
       </c>
       <c r="C19">
-        <v>614.3401826913407</v>
+        <v>614.3394818218935</v>
       </c>
       <c r="D19">
         <v>0.002282823427111967</v>
@@ -10355,10 +10355,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35731.1047109552</v>
+        <v>35744.87001150416</v>
       </c>
       <c r="C20">
-        <v>606.3652840362244</v>
+        <v>606.3645785580093</v>
       </c>
       <c r="D20">
         <v>0.002286646544601212</v>
@@ -10384,10 +10384,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35885.66124536512</v>
+        <v>35899.40604210902</v>
       </c>
       <c r="C21">
-        <v>666.5951012074811</v>
+        <v>666.5943967800958</v>
       </c>
       <c r="D21">
         <v>0.002323853169674712</v>
@@ -10413,10 +10413,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35055.21150984841</v>
+        <v>35068.91149987166</v>
       </c>
       <c r="C22">
-        <v>660.6645207208962</v>
+        <v>660.6638185898767</v>
       </c>
       <c r="D22">
         <v>0.002289827908263237</v>
@@ -10442,10 +10442,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34548.07260529434</v>
+        <v>34561.45788512514</v>
       </c>
       <c r="C23">
-        <v>634.3103055768805</v>
+        <v>634.3096195749084</v>
       </c>
       <c r="D23">
         <v>0.002268705864596745</v>
@@ -10471,10 +10471,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34543.33716241061</v>
+        <v>34556.47523197461</v>
       </c>
       <c r="C24">
-        <v>598.968685953496</v>
+        <v>598.9680126211679</v>
       </c>
       <c r="D24">
         <v>0.002185950354006601</v>
@@ -10500,10 +10500,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34720.60841462007</v>
+        <v>34733.93260523622</v>
       </c>
       <c r="C25">
-        <v>619.367265776367</v>
+        <v>619.3665829052463</v>
       </c>
       <c r="D25">
         <v>0.002307385080454347</v>
@@ -10529,10 +10529,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>33265.42788118478</v>
+        <v>33278.40856024718</v>
       </c>
       <c r="C26">
-        <v>592.0668064299264</v>
+        <v>592.0661411639365</v>
       </c>
       <c r="D26">
         <v>0.00221297467627692</v>
@@ -10558,10 +10558,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>35292.22251018051</v>
+        <v>35305.20222161613</v>
       </c>
       <c r="C27">
-        <v>646.7241853236976</v>
+        <v>646.7235201072991</v>
       </c>
       <c r="D27">
         <v>0.002251649466262661</v>
@@ -10587,10 +10587,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>35881.14055067776</v>
+        <v>35894.91921288213</v>
       </c>
       <c r="C28">
-        <v>633.7378872817678</v>
+        <v>633.7371811187614</v>
       </c>
       <c r="D28">
         <v>0.002332035028595428</v>
@@ -10616,10 +10616,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>35077.56208579383</v>
+        <v>35091.34279465847</v>
       </c>
       <c r="C29">
-        <v>649.7097498040687</v>
+        <v>649.70904353617</v>
       </c>
       <c r="D29">
         <v>0.002311135745317417</v>
@@ -10645,10 +10645,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>33663.4239763322</v>
+        <v>33676.67424794832</v>
       </c>
       <c r="C30">
-        <v>637.3447871100296</v>
+        <v>637.3441080272928</v>
       </c>
       <c r="D30">
         <v>0.002246223637779816</v>
@@ -10674,10 +10674,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>33841.36337906189</v>
+        <v>33854.62567574926</v>
       </c>
       <c r="C31">
-        <v>578.0940640567376</v>
+        <v>578.0933843577102</v>
       </c>
       <c r="D31">
         <v>0.002151040623956131</v>
@@ -10703,10 +10703,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>35644.3829194791</v>
+        <v>35657.63677007036</v>
       </c>
       <c r="C32">
-        <v>651.680151136531</v>
+        <v>651.6794718703701</v>
       </c>
       <c r="D32">
         <v>0.002282368204473643</v>
@@ -10732,10 +10732,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>35661.76083951298</v>
+        <v>35675.57795352463</v>
       </c>
       <c r="C33">
-        <v>652.6660837533503</v>
+        <v>652.6653756196706</v>
       </c>
       <c r="D33">
         <v>0.002345397543976692</v>
@@ -10761,10 +10761,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>34557.12265212251</v>
+        <v>34570.4311555071</v>
       </c>
       <c r="C34">
-        <v>614.3977460843387</v>
+        <v>614.3970640171959</v>
       </c>
       <c r="D34">
         <v>0.00227094571003216</v>
@@ -10790,10 +10790,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>33586.92689660113</v>
+        <v>33600.40772078661</v>
       </c>
       <c r="C35">
-        <v>668.2106071100823</v>
+        <v>668.2099162114164</v>
       </c>
       <c r="D35">
         <v>0.002282712948281162</v>
@@ -10819,10 +10819,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>33415.80476828448</v>
+        <v>33428.44661998378</v>
       </c>
       <c r="C36">
-        <v>599.0340717035973</v>
+        <v>599.0334238026713</v>
       </c>
       <c r="D36">
         <v>0.002169840559027259</v>
@@ -10848,10 +10848,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>35512.25445777637</v>
+        <v>35525.53448350803</v>
       </c>
       <c r="C37">
-        <v>628.7864490853071</v>
+        <v>628.7857684776577</v>
       </c>
       <c r="D37">
         <v>0.002246222527670442</v>
@@ -10877,10 +10877,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>35987.79140085242</v>
+        <v>36001.59907449487</v>
       </c>
       <c r="C38">
-        <v>649.6624886044397</v>
+        <v>649.6617809545834</v>
       </c>
       <c r="D38">
         <v>0.002353463451296773</v>
@@ -10906,10 +10906,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>36076.54367813271</v>
+        <v>36090.3335105005</v>
       </c>
       <c r="C39">
-        <v>647.1693292727457</v>
+        <v>647.1686225372631</v>
       </c>
       <c r="D39">
         <v>0.002295593746174335</v>
@@ -10935,10 +10935,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>35733.63443825032</v>
+        <v>35747.36282619689</v>
       </c>
       <c r="C40">
-        <v>637.7290109352273</v>
+        <v>637.7283073488007</v>
       </c>
       <c r="D40">
         <v>0.002300658824854954</v>
@@ -10964,10 +10964,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>35655.24165709488</v>
+        <v>35668.60284071766</v>
       </c>
       <c r="C41">
-        <v>636.7428715870387</v>
+        <v>636.7421868200088</v>
       </c>
       <c r="D41">
         <v>0.002313270733617248</v>
@@ -10993,10 +10993,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>35627.0263783656</v>
+        <v>35640.68434235833</v>
       </c>
       <c r="C42">
-        <v>636.2420035112004</v>
+        <v>636.2413035340351</v>
       </c>
       <c r="D42">
         <v>0.00230990404759822</v>
@@ -11022,10 +11022,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>34823.00716622692</v>
+        <v>34836.61768406437</v>
       </c>
       <c r="C43">
-        <v>625.8295878252508</v>
+        <v>625.8288902797235</v>
       </c>
       <c r="D43">
         <v>0.002285474941696875</v>
@@ -11051,10 +11051,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>33716.83392525832</v>
+        <v>33730.01035286901</v>
       </c>
       <c r="C44">
-        <v>619.919118523574</v>
+        <v>619.9184432253777</v>
       </c>
       <c r="D44">
         <v>0.002236866661651496</v>
@@ -11080,10 +11080,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>35634.60128854951</v>
+        <v>35648.16264603747</v>
       </c>
       <c r="C45">
-        <v>642.2169596137931</v>
+        <v>642.2162645877572</v>
       </c>
       <c r="D45">
         <v>0.002330394731898834</v>
@@ -11109,10 +11109,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>35508.28207099865</v>
+        <v>35522.04090285939</v>
       </c>
       <c r="C46">
-        <v>644.2117799761612</v>
+        <v>644.2110748294695</v>
       </c>
       <c r="D46">
         <v>0.002327561534845497</v>
@@ -11138,10 +11138,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>34657.44750156474</v>
+        <v>34671.12096987643</v>
       </c>
       <c r="C47">
-        <v>620.858626961387</v>
+        <v>620.8579261896178</v>
       </c>
       <c r="D47">
         <v>0.002322972764185912</v>
@@ -11167,10 +11167,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>34667.35013628253</v>
+        <v>34680.59579540858</v>
       </c>
       <c r="C48">
-        <v>601.4498243660266</v>
+        <v>601.4491455196824</v>
       </c>
       <c r="D48">
         <v>0.002191950376057796</v>
@@ -11196,10 +11196,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>35553.74880678573</v>
+        <v>35567.40506520047</v>
       </c>
       <c r="C49">
-        <v>644.7090353440607</v>
+        <v>644.7083354543068</v>
       </c>
       <c r="D49">
         <v>0.002286003054960236</v>
@@ -11225,10 +11225,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>34813.24369022541</v>
+        <v>34826.64974692457</v>
       </c>
       <c r="C50">
-        <v>624.8375718670768</v>
+        <v>624.8368848002802</v>
       </c>
       <c r="D50">
         <v>0.002275710388777882</v>
@@ -11254,10 +11254,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>34982.18683121139</v>
+        <v>34995.63593221407</v>
       </c>
       <c r="C51">
-        <v>623.3346767977689</v>
+        <v>623.3339875249313</v>
       </c>
       <c r="D51">
         <v>0.002294605678418879</v>
@@ -11283,10 +11283,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>34288.49906400556</v>
+        <v>34301.75289522398</v>
       </c>
       <c r="C52">
-        <v>601.4691103020347</v>
+        <v>601.4684310368665</v>
       </c>
       <c r="D52">
         <v>0.002193303927494631</v>
@@ -11312,10 +11312,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>35813.56118206029</v>
+        <v>35827.1245785868</v>
       </c>
       <c r="C53">
-        <v>636.2340087099175</v>
+        <v>636.2333135793798</v>
       </c>
       <c r="D53">
         <v>0.002282415524157165</v>
@@ -11341,10 +11341,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>34592.9220990689</v>
+        <v>34606.32090315229</v>
       </c>
       <c r="C54">
-        <v>642.771018836712</v>
+        <v>642.7703321416154</v>
       </c>
       <c r="D54">
         <v>0.002251692696988263</v>
@@ -11370,10 +11370,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>35093.03914444402</v>
+        <v>35106.30189630855</v>
       </c>
       <c r="C55">
-        <v>641.2540370543928</v>
+        <v>641.2533573320375</v>
       </c>
       <c r="D55">
         <v>0.002234626537180667</v>
@@ -11399,10 +11399,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>35787.46570100779</v>
+        <v>35801.20096947511</v>
       </c>
       <c r="C56">
-        <v>681.0374837284329</v>
+        <v>681.0367797893764</v>
       </c>
       <c r="D56">
         <v>0.002308664887697205</v>
@@ -11428,10 +11428,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>35942.10773214669</v>
+        <v>35955.73806284081</v>
       </c>
       <c r="C57">
-        <v>639.7110653552758</v>
+        <v>639.71036679433</v>
       </c>
       <c r="D57">
         <v>0.002316027609686353</v>
@@ -11457,10 +11457,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>35658.82575545085</v>
+        <v>35672.58744023021</v>
       </c>
       <c r="C58">
-        <v>650.6759324351788</v>
+        <v>650.6752271422736</v>
       </c>
       <c r="D58">
         <v>0.002306780056386926</v>
@@ -11486,10 +11486,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>44958.49936593269</v>
+        <v>44973.7472411534</v>
       </c>
       <c r="C59">
-        <v>771.1483486615358</v>
+        <v>771.147567200662</v>
       </c>
       <c r="D59">
         <v>0.002689077983447096</v>
@@ -11515,10 +11515,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>52521.3448509623</v>
+        <v>52541.73212565826</v>
       </c>
       <c r="C60">
-        <v>781.6357334389296</v>
+        <v>781.6346885813828</v>
       </c>
       <c r="D60">
         <v>0.002576401952372768</v>
@@ -11544,10 +11544,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4585.610431542088</v>
+        <v>4591.245451189233</v>
       </c>
       <c r="C61">
-        <v>157.0618219482744</v>
+        <v>157.0615331508313</v>
       </c>
       <c r="D61">
         <v>0.0006270257336450474</v>
@@ -11573,10 +11573,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>367.430362014496</v>
+        <v>367.8871698168561</v>
       </c>
       <c r="C62">
-        <v>14.48465720575602</v>
+        <v>14.48463379413839</v>
       </c>
       <c r="D62">
         <v>5.118474307439724E-05</v>
@@ -11602,10 +11602,10 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>35258.07423373344</v>
+        <v>35271.30258555917</v>
       </c>
       <c r="C64">
-        <v>635.272157143399</v>
+        <v>635.2714665771441</v>
       </c>
       <c r="D64">
         <v>0.002292216793341058</v>
@@ -11631,10 +11631,10 @@
         <v>10</v>
       </c>
       <c r="B65">
-        <v>1.132867907999259</v>
+        <v>1.132671898706191</v>
       </c>
       <c r="C65">
-        <v>1.416744331748485</v>
+        <v>1.416744326388506</v>
       </c>
       <c r="D65">
         <v>0.9594962432380618</v>
@@ -11739,10 +11739,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8420.289656547038</v>
+        <v>8463.8072355077</v>
       </c>
       <c r="C3">
-        <v>11146.89998537224</v>
+        <v>11146.89775507558</v>
       </c>
       <c r="D3">
         <v>0.0007682863236711415</v>
@@ -11768,10 +11768,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8526.273358319526</v>
+        <v>8569.876650102769</v>
       </c>
       <c r="C4">
-        <v>11170.30087736017</v>
+        <v>11170.29864267068</v>
       </c>
       <c r="D4">
         <v>0.0007454076269754488</v>
@@ -11797,10 +11797,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8590.66359894513</v>
+        <v>8634.117779397924</v>
       </c>
       <c r="C5">
-        <v>11349.09402703994</v>
+        <v>11349.09179999248</v>
       </c>
       <c r="D5">
         <v>0.0007585268432072196</v>
@@ -11826,10 +11826,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8624.558655600351</v>
+        <v>8668.47478184775</v>
       </c>
       <c r="C6">
-        <v>11375.97926569637</v>
+        <v>11375.97701497397</v>
       </c>
       <c r="D6">
         <v>0.0007523938022429562</v>
@@ -11855,10 +11855,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8565.340064614486</v>
+        <v>8609.215014182853</v>
       </c>
       <c r="C7">
-        <v>11310.74023671231</v>
+        <v>11310.73798810023</v>
       </c>
       <c r="D7">
         <v>0.0007541007036994391</v>
@@ -11884,10 +11884,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8623.282824277388</v>
+        <v>8667.476448785204</v>
       </c>
       <c r="C8">
-        <v>11306.25005728152</v>
+        <v>11306.2477923372</v>
       </c>
       <c r="D8">
         <v>0.0007673790023204356</v>
@@ -11913,10 +11913,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8731.659125643066</v>
+        <v>8776.52956034077</v>
       </c>
       <c r="C9">
-        <v>11540.3115123882</v>
+        <v>11540.30921275703</v>
       </c>
       <c r="D9">
         <v>0.000817164145756511</v>
@@ -11942,10 +11942,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8437.295537697384</v>
+        <v>8481.726780670202</v>
       </c>
       <c r="C10">
-        <v>11322.69103787162</v>
+        <v>11322.68876074924</v>
       </c>
       <c r="D10">
         <v>0.0007903637612516949</v>
@@ -11971,10 +11971,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8552.474932598116</v>
+        <v>8594.78675625838</v>
       </c>
       <c r="C11">
-        <v>11119.02158202543</v>
+        <v>11119.0194135243</v>
       </c>
       <c r="D11">
         <v>0.0007955591368860901</v>
@@ -12000,10 +12000,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8442.931538646959</v>
+        <v>8487.205912154388</v>
       </c>
       <c r="C12">
-        <v>11474.09636846884</v>
+        <v>11474.09409938609</v>
       </c>
       <c r="D12">
         <v>0.0007774319589140038</v>
@@ -12029,10 +12029,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7873.125197897631</v>
+        <v>7914.557854861986</v>
       </c>
       <c r="C13">
-        <v>10527.41508330581</v>
+        <v>10527.41295986239</v>
       </c>
       <c r="D13">
         <v>0.0007937100770745841</v>
@@ -12058,10 +12058,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8066.164333825736</v>
+        <v>8108.263393108285</v>
       </c>
       <c r="C14">
-        <v>10650.40649728617</v>
+        <v>10650.40433968932</v>
       </c>
       <c r="D14">
         <v>0.0007643992141146653</v>
@@ -12087,10 +12087,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8567.039178946074</v>
+        <v>8610.216893561959</v>
       </c>
       <c r="C15">
-        <v>11107.0550239784</v>
+        <v>11107.05281109995</v>
       </c>
       <c r="D15">
         <v>0.0007817658050186457</v>
@@ -12116,10 +12116,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8656.796477733909</v>
+        <v>8700.348896292757</v>
       </c>
       <c r="C16">
-        <v>11416.82192423879</v>
+        <v>11416.81969215657</v>
       </c>
       <c r="D16">
         <v>0.0007972770989584503</v>
@@ -12145,10 +12145,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8648.029874155751</v>
+        <v>8692.868158807078</v>
       </c>
       <c r="C17">
-        <v>11609.04551779023</v>
+        <v>11609.04321980676</v>
       </c>
       <c r="D17">
         <v>0.0008812697885139531</v>
@@ -12174,10 +12174,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8502.384486853549</v>
+        <v>8546.961159495973</v>
       </c>
       <c r="C18">
-        <v>11205.64744028028</v>
+        <v>11205.64515570456</v>
       </c>
       <c r="D18">
         <v>0.0007938868161609623</v>
@@ -12203,10 +12203,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8311.073997256151</v>
+        <v>8353.760776144316</v>
       </c>
       <c r="C19">
-        <v>10959.6590036593</v>
+        <v>10959.65681594154</v>
       </c>
       <c r="D19">
         <v>0.0007309758414648729</v>
@@ -12232,10 +12232,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8133.782922438646</v>
+        <v>8176.974641807685</v>
       </c>
       <c r="C20">
-        <v>10719.61194406841</v>
+        <v>10719.6097304722</v>
       </c>
       <c r="D20">
         <v>0.000711022523587899</v>
@@ -12261,10 +12261,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8176.778142972949</v>
+        <v>8218.814431482331</v>
       </c>
       <c r="C21">
-        <v>10607.57224801649</v>
+        <v>10607.57009363667</v>
       </c>
       <c r="D21">
         <v>0.0006874858391419755</v>
@@ -12290,10 +12290,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8483.578861624972</v>
+        <v>8527.545048888547</v>
       </c>
       <c r="C22">
-        <v>11222.09287581072</v>
+        <v>11222.09062252266</v>
       </c>
       <c r="D22">
         <v>0.0007687988458072664</v>
@@ -12319,10 +12319,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8478.96739166728</v>
+        <v>8522.568318744874</v>
       </c>
       <c r="C23">
-        <v>10974.07903301499</v>
+        <v>10974.07679844669</v>
       </c>
       <c r="D23">
         <v>0.0008012154543240982</v>
@@ -12348,10 +12348,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8030.54481966122</v>
+        <v>8073.398835082139</v>
       </c>
       <c r="C24">
-        <v>10801.29832383434</v>
+        <v>10801.29612754563</v>
       </c>
       <c r="D24">
         <v>0.0007246775548363911</v>
@@ -12377,10 +12377,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8471.886563630871</v>
+        <v>8514.114320092469</v>
       </c>
       <c r="C25">
-        <v>10904.87463895615</v>
+        <v>10904.8724747635</v>
       </c>
       <c r="D25">
         <v>0.0007339331900235427</v>
@@ -12406,10 +12406,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8694.040240888708</v>
+        <v>8738.684510326646</v>
       </c>
       <c r="C26">
-        <v>11541.81096437179</v>
+        <v>11541.8086763317</v>
       </c>
       <c r="D26">
         <v>0.000821936165346599</v>
@@ -12435,10 +12435,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8762.173573331984</v>
+        <v>8807.401749940251</v>
       </c>
       <c r="C27">
-        <v>11623.47759153311</v>
+        <v>11623.4752735675</v>
       </c>
       <c r="D27">
         <v>0.0007462290822482522</v>
@@ -12464,10 +12464,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8656.458908918576</v>
+        <v>8701.827429255683</v>
       </c>
       <c r="C28">
-        <v>11573.67664486109</v>
+        <v>11573.67431970279</v>
       </c>
       <c r="D28">
         <v>0.0007833306756714092</v>
@@ -12493,10 +12493,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8558.294435781028</v>
+        <v>8603.230166278046</v>
       </c>
       <c r="C29">
-        <v>11439.71553551934</v>
+        <v>11439.71323254174</v>
       </c>
       <c r="D29">
         <v>0.0008360397415998507</v>
@@ -12522,10 +12522,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8570.407308430094</v>
+        <v>8614.689374089778</v>
       </c>
       <c r="C30">
-        <v>11369.50199400458</v>
+        <v>11369.49972452761</v>
       </c>
       <c r="D30">
         <v>0.0007582607312648372</v>
@@ -12551,10 +12551,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8572.71554765872</v>
+        <v>8617.17776058219</v>
       </c>
       <c r="C31">
-        <v>11169.28933013766</v>
+        <v>11169.28705142806</v>
       </c>
       <c r="D31">
         <v>0.0007625468570670422</v>
@@ -12580,10 +12580,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8070.253255015822</v>
+        <v>8113.235635512845</v>
       </c>
       <c r="C32">
-        <v>10613.04130386006</v>
+        <v>10613.03910099257</v>
       </c>
       <c r="D32">
         <v>0.0007503704443449623</v>
@@ -12609,10 +12609,10 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>8561.817250197757</v>
+        <v>8606.222590230449</v>
       </c>
       <c r="C34">
-        <v>11222.09287581072</v>
+        <v>11222.09062252266</v>
       </c>
       <c r="D34">
         <v>0.0007678326629957886</v>
@@ -12638,10 +12638,10 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.6874685029557437</v>
+        <v>0.6865313257363284</v>
       </c>
       <c r="C35">
-        <v>1.012644422945912</v>
+        <v>1.012644490045753</v>
       </c>
       <c r="D35">
         <v>1.479455773112628</v>
@@ -12746,10 +12746,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31480.46382069547</v>
+        <v>31529.07739431139</v>
       </c>
       <c r="C3">
-        <v>4568.084696647636</v>
+        <v>4568.082205178814</v>
       </c>
       <c r="D3">
         <v>0.02777123787092809</v>
@@ -12775,10 +12775,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31716.38770528646</v>
+        <v>31764.83296095458</v>
       </c>
       <c r="C4">
-        <v>4540.690319488487</v>
+        <v>4540.68783664604</v>
       </c>
       <c r="D4">
         <v>0.02777017080807648</v>
@@ -12804,10 +12804,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31630.6323089335</v>
+        <v>31679.10367274663</v>
       </c>
       <c r="C5">
-        <v>4546.668680825454</v>
+        <v>4546.666196644952</v>
       </c>
       <c r="D5">
         <v>0.02787667489309687</v>
@@ -12833,10 +12833,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31217.16778946994</v>
+        <v>31264.92308273943</v>
       </c>
       <c r="C6">
-        <v>4516.33042144534</v>
+        <v>4516.327973963795</v>
       </c>
       <c r="D6">
         <v>0.02746982510991272</v>
@@ -12862,10 +12862,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31291.61793636049</v>
+        <v>31339.68285481509</v>
       </c>
       <c r="C7">
-        <v>4510.346117462507</v>
+        <v>4510.343654112524</v>
       </c>
       <c r="D7">
         <v>0.0276638701465531</v>
@@ -12891,10 +12891,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31060.99717268138</v>
+        <v>31108.91811434412</v>
       </c>
       <c r="C8">
-        <v>4528.785057458093</v>
+        <v>4528.782601486988</v>
       </c>
       <c r="D8">
         <v>0.02715612901744863</v>
@@ -12920,10 +12920,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30909.34195261922</v>
+        <v>30957.39972305126</v>
       </c>
       <c r="C9">
-        <v>4462.069574390438</v>
+        <v>4462.067111406794</v>
       </c>
       <c r="D9">
         <v>0.02755226091906753</v>
@@ -12949,10 +12949,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30124.64119909905</v>
+        <v>30172.41841343042</v>
       </c>
       <c r="C10">
-        <v>4425.76936743288</v>
+        <v>4425.76691882787</v>
       </c>
       <c r="D10">
         <v>0.02706698643703792</v>
@@ -12978,10 +12978,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30869.65819550194</v>
+        <v>30917.03457824677</v>
       </c>
       <c r="C11">
-        <v>4403.830028569373</v>
+        <v>4403.827600507172</v>
       </c>
       <c r="D11">
         <v>0.02695752678674638</v>
@@ -13007,10 +13007,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30274.86344726626</v>
+        <v>30322.43750682424</v>
       </c>
       <c r="C12">
-        <v>4433.233867191887</v>
+        <v>4433.231428998656</v>
       </c>
       <c r="D12">
         <v>0.02694977017128791</v>
@@ -13036,10 +13036,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29341.01383445875</v>
+        <v>29385.98737760901</v>
       </c>
       <c r="C13">
-        <v>4232.175020498159</v>
+        <v>4232.172715582634</v>
       </c>
       <c r="D13">
         <v>0.02563892167602292</v>
@@ -13065,10 +13065,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30351.9877311906</v>
+        <v>30398.70004937731</v>
       </c>
       <c r="C14">
-        <v>4330.677800866353</v>
+        <v>4330.675406837779</v>
       </c>
       <c r="D14">
         <v>0.02635930804707798</v>
@@ -13094,10 +13094,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31580.32886848745</v>
+        <v>31627.7749811568</v>
       </c>
       <c r="C15">
-        <v>4564.115785125113</v>
+        <v>4564.113353489221</v>
       </c>
       <c r="D15">
         <v>0.02740360966363675</v>
@@ -13123,10 +13123,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31066.55917088958</v>
+        <v>31114.4012265142</v>
       </c>
       <c r="C16">
-        <v>4534.759661173386</v>
+        <v>4534.757209245228</v>
       </c>
       <c r="D16">
         <v>0.02740174703652202</v>
@@ -13152,10 +13152,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30050.89724791374</v>
+        <v>30098.16216200848</v>
       </c>
       <c r="C17">
-        <v>4464.619115330019</v>
+        <v>4464.61669298064</v>
       </c>
       <c r="D17">
         <v>0.02671637888788305</v>
@@ -13181,10 +13181,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29278.74075868397</v>
+        <v>29324.18434311953</v>
       </c>
       <c r="C18">
-        <v>4148.52403146104</v>
+        <v>4148.521702455675</v>
       </c>
       <c r="D18">
         <v>0.02563396073206207</v>
@@ -13210,10 +13210,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28989.74474927565</v>
+        <v>29035.12690808086</v>
       </c>
       <c r="C19">
-        <v>4146.051956494294</v>
+        <v>4146.049630637021</v>
       </c>
       <c r="D19">
         <v>0.02528429391206838</v>
@@ -13239,10 +13239,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30759.7463151695</v>
+        <v>30806.88840371138</v>
       </c>
       <c r="C20">
-        <v>4400.852190949311</v>
+        <v>4400.8497748948</v>
       </c>
       <c r="D20">
         <v>0.02687450256365442</v>
@@ -13268,10 +13268,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30598.46519347548</v>
+        <v>30644.91266169981</v>
       </c>
       <c r="C21">
-        <v>4360.044808851494</v>
+        <v>4360.042428396606</v>
       </c>
       <c r="D21">
         <v>0.02648598053015539</v>
@@ -13297,10 +13297,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29630.94383058835</v>
+        <v>29676.53908061502</v>
       </c>
       <c r="C22">
-        <v>4355.628429602692</v>
+        <v>4355.626092824393</v>
       </c>
       <c r="D22">
         <v>0.02601866094580098</v>
@@ -13326,10 +13326,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30676.18078855371</v>
+        <v>30723.15755574077</v>
       </c>
       <c r="C23">
-        <v>4399.365318433976</v>
+        <v>4399.362910852264</v>
       </c>
       <c r="D23">
         <v>0.02686437596321702</v>
@@ -13355,10 +13355,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30947.50993013971</v>
+        <v>30994.78713650651</v>
       </c>
       <c r="C24">
-        <v>4575.10410691006</v>
+        <v>4575.101683930696</v>
       </c>
       <c r="D24">
         <v>0.0275318415746011</v>
@@ -13384,10 +13384,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31171.19293911686</v>
+        <v>31218.57371878814</v>
       </c>
       <c r="C25">
-        <v>4484.971432073816</v>
+        <v>4484.969003786271</v>
       </c>
       <c r="D25">
         <v>0.0272600260811159</v>
@@ -13413,10 +13413,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31019.07582986857</v>
+        <v>31066.06249734494</v>
       </c>
       <c r="C26">
-        <v>4579.088907227429</v>
+        <v>4579.086499138321</v>
       </c>
       <c r="D26">
         <v>0.0273626171552137</v>
@@ -13442,10 +13442,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>30637.13782840933</v>
+        <v>30684.28044882505</v>
       </c>
       <c r="C27">
-        <v>4587.571759156204</v>
+        <v>4587.569343074435</v>
       </c>
       <c r="D27">
         <v>0.02710663706151318</v>
@@ -13471,10 +13471,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>30937.21424145886</v>
+        <v>30983.82801382899</v>
       </c>
       <c r="C28">
-        <v>4470.059825943343</v>
+        <v>4470.057436965288</v>
       </c>
       <c r="D28">
         <v>0.02685956157630167</v>
@@ -13500,10 +13500,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>30729.10884663817</v>
+        <v>30775.98938579945</v>
       </c>
       <c r="C29">
-        <v>4398.367989028186</v>
+        <v>4398.365586378206</v>
       </c>
       <c r="D29">
         <v>0.02692052830346972</v>
@@ -13529,10 +13529,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>29482.67124870646</v>
+        <v>29528.51684268946</v>
       </c>
       <c r="C30">
-        <v>4279.452890979577</v>
+        <v>4279.45054137103</v>
       </c>
       <c r="D30">
         <v>0.02609832066626676</v>
@@ -13558,10 +13558,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>29941.42859432504</v>
+        <v>29987.03481184622</v>
       </c>
       <c r="C31">
-        <v>4422.826938425184</v>
+        <v>4422.824601084796</v>
       </c>
       <c r="D31">
         <v>0.02650454198698936</v>
@@ -13587,10 +13587,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30874.4641849136</v>
+        <v>30921.5229417244</v>
       </c>
       <c r="C32">
-        <v>4490.469712353938</v>
+        <v>4490.467300570219</v>
       </c>
       <c r="D32">
         <v>0.02700182967797006</v>
@@ -13616,10 +13616,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>30729.7301054595</v>
+        <v>30776.48879898994</v>
       </c>
       <c r="C33">
-        <v>4421.770932497201</v>
+        <v>4421.768536091869</v>
       </c>
       <c r="D33">
         <v>0.02699045496743884</v>
@@ -13645,10 +13645,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>29052.32142188784</v>
+        <v>29098.41410967301</v>
       </c>
       <c r="C34">
-        <v>4243.623374563152</v>
+        <v>4243.621012290931</v>
       </c>
       <c r="D34">
         <v>0.02588548570880262</v>
@@ -13674,10 +13674,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>28991.96368004986</v>
+        <v>29037.12248593429</v>
       </c>
       <c r="C35">
-        <v>4194.353624409731</v>
+        <v>4194.351309999403</v>
       </c>
       <c r="D35">
         <v>0.0248244064187093</v>
@@ -13703,10 +13703,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>30631.48612132993</v>
+        <v>30677.80829489727</v>
       </c>
       <c r="C36">
-        <v>4336.642245404133</v>
+        <v>4336.639871370656</v>
       </c>
       <c r="D36">
         <v>0.02677040895014339</v>
@@ -13732,10 +13732,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>29930.92745649583</v>
+        <v>29977.55660611991</v>
       </c>
       <c r="C37">
-        <v>4371.527000166433</v>
+        <v>4371.524610400287</v>
       </c>
       <c r="D37">
         <v>0.02670031197963255</v>
@@ -13761,10 +13761,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>30364.69843614797</v>
+        <v>30410.66809161568</v>
       </c>
       <c r="C38">
-        <v>4275.920979556095</v>
+        <v>4275.918623589338</v>
       </c>
       <c r="D38">
         <v>0.02599809143272872</v>
@@ -13790,10 +13790,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>30660.99909898056</v>
+        <v>30707.70930805966</v>
       </c>
       <c r="C39">
-        <v>4470.571030155509</v>
+        <v>4470.568636235026</v>
       </c>
       <c r="D39">
         <v>0.02673320562734428</v>
@@ -13819,10 +13819,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>29798.12036344668</v>
+        <v>29843.50066057823</v>
       </c>
       <c r="C40">
-        <v>4329.235155764543</v>
+        <v>4329.232830002683</v>
       </c>
       <c r="D40">
         <v>0.02584095195588604</v>
@@ -13848,10 +13848,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>29281.63810196597</v>
+        <v>29327.17371964061</v>
       </c>
       <c r="C41">
-        <v>4278.970868349224</v>
+        <v>4278.968534627111</v>
       </c>
       <c r="D41">
         <v>0.02591535349432495</v>
@@ -13877,10 +13877,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>29860.74323480891</v>
+        <v>29906.29616297482</v>
       </c>
       <c r="C42">
-        <v>4265.994884312287</v>
+        <v>4265.992549703004</v>
       </c>
       <c r="D42">
         <v>0.02604481932117784</v>
@@ -13906,10 +13906,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>29892.32636370157</v>
+        <v>29938.19050787747</v>
       </c>
       <c r="C43">
-        <v>4328.72429995876</v>
+        <v>4328.721949399507</v>
       </c>
       <c r="D43">
         <v>0.0260061387927815</v>
@@ -13935,10 +13935,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>30922.32094954895</v>
+        <v>30968.87625366175</v>
       </c>
       <c r="C44">
-        <v>4450.643823894411</v>
+        <v>4450.641437912883</v>
       </c>
       <c r="D44">
         <v>0.02672987401390135</v>
@@ -13964,10 +13964,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>30725.54538568468</v>
+        <v>30772.00574987022</v>
       </c>
       <c r="C45">
-        <v>4490.48734780218</v>
+        <v>4490.484966686367</v>
       </c>
       <c r="D45">
         <v>0.0268071768170104</v>
@@ -13993,10 +13993,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>30507.16646011736</v>
+        <v>30553.70399097576</v>
       </c>
       <c r="C46">
-        <v>4467.095813256356</v>
+        <v>4467.093428185716</v>
       </c>
       <c r="D46">
         <v>0.02681384925078553</v>
@@ -14022,10 +14022,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>30407.75462360154</v>
+        <v>30454.02602362373</v>
       </c>
       <c r="C47">
-        <v>4496.48171307553</v>
+        <v>4496.479341644221</v>
       </c>
       <c r="D47">
         <v>0.02673346038469477</v>
@@ -14051,10 +14051,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>30413.80098785302</v>
+        <v>30460.00755953104</v>
       </c>
       <c r="C48">
-        <v>4357.569347916885</v>
+        <v>4357.56697980806</v>
       </c>
       <c r="D48">
         <v>0.02629064031526536</v>
@@ -14080,10 +14080,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>29801.40254509325</v>
+        <v>29846.98741835175</v>
       </c>
       <c r="C49">
-        <v>4407.897857173561</v>
+        <v>4407.895520927076</v>
       </c>
       <c r="D49">
         <v>0.02639473776492794</v>
@@ -14109,10 +14109,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>29863.26418322382</v>
+        <v>29909.282666167</v>
       </c>
       <c r="C50">
-        <v>4254.039481157755</v>
+        <v>4254.037122688568</v>
       </c>
       <c r="D50">
         <v>0.02575300476160857</v>
@@ -14138,10 +14138,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>28776.939397727</v>
+        <v>28821.82832325861</v>
       </c>
       <c r="C51">
-        <v>4149.556987290051</v>
+        <v>4149.554686711218</v>
       </c>
       <c r="D51">
         <v>0.02500072646358682</v>
@@ -14167,10 +14167,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>30208.76050988236</v>
+        <v>30254.17573087206</v>
       </c>
       <c r="C52">
-        <v>4390.453794239078</v>
+        <v>4390.451466687353</v>
       </c>
       <c r="D52">
         <v>0.02621585268518103</v>
@@ -14196,10 +14196,10 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>30634.31197486963</v>
+        <v>30681.04437186116</v>
       </c>
       <c r="C54">
-        <v>4422.826938425184</v>
+        <v>4422.824601084796</v>
       </c>
       <c r="D54">
         <v>0.0268071768170104</v>
@@ -14225,10 +14225,10 @@
         <v>10</v>
       </c>
       <c r="B55">
-        <v>0.6114611036911419</v>
+        <v>0.6112802567398333</v>
       </c>
       <c r="C55">
-        <v>0.6893017124859703</v>
+        <v>0.6893018338548752</v>
       </c>
       <c r="D55">
         <v>0.6683449779512511</v>
@@ -14333,10 +14333,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8915.192394928528</v>
+        <v>8960.408181974719</v>
       </c>
       <c r="C3">
-        <v>11753.45806093752</v>
+        <v>11753.45574360688</v>
       </c>
       <c r="D3">
         <v>0.000795922995231074</v>
@@ -14362,10 +14362,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8808.272101739625</v>
+        <v>8853.835521211324</v>
       </c>
       <c r="C4">
-        <v>11837.6276744603</v>
+        <v>11837.62533931333</v>
       </c>
       <c r="D4">
         <v>0.0008141407799006365</v>
@@ -14391,10 +14391,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8684.107066822315</v>
+        <v>8729.341576707629</v>
       </c>
       <c r="C5">
-        <v>11676.77121814147</v>
+        <v>11676.76889985128</v>
       </c>
       <c r="D5">
         <v>0.000756815523429511</v>
@@ -14420,10 +14420,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8573.364996575388</v>
+        <v>8618.293558566513</v>
       </c>
       <c r="C6">
-        <v>11586.63599744819</v>
+        <v>11586.63369483796</v>
       </c>
       <c r="D6">
         <v>0.0007729399172182136</v>
@@ -14449,10 +14449,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8718.593916301681</v>
+        <v>8763.703683032483</v>
       </c>
       <c r="C7">
-        <v>11409.82215818902</v>
+        <v>11409.81984629198</v>
       </c>
       <c r="D7">
         <v>0.0007579374924035031</v>
@@ -14478,10 +14478,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8736.359999824104</v>
+        <v>8781.136030676967</v>
       </c>
       <c r="C8">
-        <v>11366.9949095029</v>
+        <v>11366.99261470997</v>
       </c>
       <c r="D8">
         <v>0.0008108180251654394</v>
@@ -14507,10 +14507,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8442.52544451492</v>
+        <v>8487.325282538995</v>
       </c>
       <c r="C9">
-        <v>11253.458101795</v>
+        <v>11253.45580578194</v>
       </c>
       <c r="D9">
         <v>0.0007087883975702397</v>
@@ -14536,10 +14536,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8035.953867794314</v>
+        <v>8079.492510536183</v>
       </c>
       <c r="C10">
-        <v>11101.09970619207</v>
+        <v>11101.09747481587</v>
       </c>
       <c r="D10">
         <v>0.0007916925688537231</v>
@@ -14565,10 +14565,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8655.678209164185</v>
+        <v>8699.968416470545</v>
       </c>
       <c r="C11">
-        <v>11401.86882864597</v>
+        <v>11401.86655875173</v>
       </c>
       <c r="D11">
         <v>0.0008387709301855329</v>
@@ -14594,10 +14594,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8216.184908081263</v>
+        <v>8260.746800752948</v>
       </c>
       <c r="C12">
-        <v>11064.22083951906</v>
+        <v>11064.21855570082</v>
       </c>
       <c r="D12">
         <v>0.0007593692801929041</v>
@@ -14623,10 +14623,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7893.942975649406</v>
+        <v>7936.088400787101</v>
       </c>
       <c r="C13">
-        <v>10595.631665792</v>
+        <v>10595.62950581887</v>
       </c>
       <c r="D13">
         <v>0.0007482275239179606</v>
@@ -14652,10 +14652,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8311.625792288818</v>
+        <v>8352.900625706978</v>
       </c>
       <c r="C14">
-        <v>10723.11727685094</v>
+        <v>10723.11516149605</v>
       </c>
       <c r="D14">
         <v>0.0007434379664508861</v>
@@ -14681,10 +14681,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8731.66641661054</v>
+        <v>8776.158572990402</v>
       </c>
       <c r="C15">
-        <v>11501.46954361471</v>
+        <v>11501.46726337048</v>
       </c>
       <c r="D15">
         <v>0.0008141219386988038</v>
@@ -14710,10 +14710,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8769.267847455661</v>
+        <v>8814.497323235528</v>
       </c>
       <c r="C16">
-        <v>11579.64870508269</v>
+        <v>11579.6463870505</v>
       </c>
       <c r="D16">
         <v>0.0007994509913892027</v>
@@ -14739,10 +14739,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8510.225461475598</v>
+        <v>8554.55678041731</v>
       </c>
       <c r="C17">
-        <v>11065.7031634212</v>
+        <v>11065.70089141997</v>
       </c>
       <c r="D17">
         <v>0.0007996021182305127</v>
@@ -14768,10 +14768,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8765.362767187242</v>
+        <v>8808.045123072052</v>
       </c>
       <c r="C18">
-        <v>11438.24444747544</v>
+        <v>11438.24225998435</v>
       </c>
       <c r="D18">
         <v>0.000806485456660925</v>
@@ -14797,10 +14797,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8430.584485985217</v>
+        <v>8474.880018533529</v>
       </c>
       <c r="C19">
-        <v>11214.12146536954</v>
+        <v>11214.11919520237</v>
       </c>
       <c r="D19">
         <v>0.0007584971258811737</v>
@@ -14826,10 +14826,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8419.12931026745</v>
+        <v>8462.932637958143</v>
       </c>
       <c r="C20">
-        <v>11210.64303747941</v>
+        <v>11210.64079253799</v>
       </c>
       <c r="D20">
         <v>0.0008093840865372437</v>
@@ -14855,10 +14855,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8865.101034287251</v>
+        <v>8909.61916336968</v>
       </c>
       <c r="C21">
-        <v>11537.8193959522</v>
+        <v>11537.81711437686</v>
       </c>
       <c r="D21">
         <v>0.0007654279664154359</v>
@@ -14884,10 +14884,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8728.544013365692</v>
+        <v>8773.663318787161</v>
       </c>
       <c r="C22">
-        <v>11448.17019641466</v>
+        <v>11448.16788402875</v>
       </c>
       <c r="D22">
         <v>0.0007958677865652851</v>
@@ -14913,10 +14913,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8373.258336606279</v>
+        <v>8417.117991202371</v>
       </c>
       <c r="C23">
-        <v>11161.339570818</v>
+        <v>11161.33732298979</v>
       </c>
       <c r="D23">
         <v>0.0007523975716506563</v>
@@ -14942,10 +14942,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8402.802919622118</v>
+        <v>8446.500213461562</v>
       </c>
       <c r="C24">
-        <v>10698.17479988393</v>
+        <v>10698.17256037679</v>
       </c>
       <c r="D24">
         <v>0.0007228835859060898</v>
@@ -14971,10 +14971,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8912.766874480269</v>
+        <v>8957.424966416203</v>
       </c>
       <c r="C25">
-        <v>11441.69311497316</v>
+        <v>11441.69082622466</v>
       </c>
       <c r="D25">
         <v>0.0008255248422276021</v>
@@ -15000,10 +15000,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8688.508294418893</v>
+        <v>8733.822736095575</v>
       </c>
       <c r="C26">
-        <v>11579.15331192929</v>
+        <v>11579.15098954255</v>
       </c>
       <c r="D26">
         <v>0.0008420261321173862</v>
@@ -15029,10 +15029,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8549.20085587985</v>
+        <v>8594.388136479613</v>
       </c>
       <c r="C27">
-        <v>11472.08410597698</v>
+        <v>11472.08179010731</v>
       </c>
       <c r="D27">
         <v>0.0008108614908990244</v>
@@ -15058,10 +15058,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8475.966115121862</v>
+        <v>8520.690670952994</v>
       </c>
       <c r="C28">
-        <v>11276.86495053607</v>
+        <v>11276.86265838126</v>
       </c>
       <c r="D28">
         <v>0.0007476608541547678</v>
@@ -15087,10 +15087,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8472.014398351208</v>
+        <v>8516.213287955814</v>
       </c>
       <c r="C29">
-        <v>11181.25054180378</v>
+        <v>11181.24827658961</v>
       </c>
       <c r="D29">
         <v>0.000777848131702218</v>
@@ -15116,10 +15116,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8337.138806134732</v>
+        <v>8381.261230091222</v>
       </c>
       <c r="C30">
-        <v>10965.61150574574</v>
+        <v>10965.60924445048</v>
       </c>
       <c r="D30">
         <v>0.0007529758255142495</v>
@@ -15145,10 +15145,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8136.578247131778</v>
+        <v>8180.083653055061</v>
       </c>
       <c r="C31">
-        <v>11041.82973623313</v>
+        <v>11041.82750656034</v>
       </c>
       <c r="D31">
         <v>0.0007261837739480076</v>
@@ -15174,10 +15174,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8224.809062483147</v>
+        <v>8267.238634020052</v>
       </c>
       <c r="C32">
-        <v>10653.87912321133</v>
+        <v>10653.87694867556</v>
       </c>
       <c r="D32">
         <v>0.0007170505026495953</v>
@@ -15203,10 +15203,10 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>8549.20085587985</v>
+        <v>8594.388136479613</v>
       </c>
       <c r="C34">
-        <v>11384.43186907443</v>
+        <v>11384.42958673085</v>
       </c>
       <c r="D34">
         <v>0.0007753940244602158</v>
@@ -15232,10 +15232,10 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>1.027253460847981</v>
+        <v>1.02417826007156</v>
       </c>
       <c r="C35">
-        <v>0.9373552838053643</v>
+        <v>0.9373553608892163</v>
       </c>
       <c r="D35">
         <v>1.718827497960926</v>
